--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F52BED-08A4-48CB-BCEC-B9ECD1CEF817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C45D8F3-BA29-4357-9AB2-273F295D26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" xr2:uid="{2536FD49-C228-45BB-BAA0-A0BFE1B4D82F}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{2536FD49-C228-45BB-BAA0-A0BFE1B4D82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -355,9 +355,6 @@
     <t>CEO: Satya Nadella</t>
   </si>
   <si>
-    <t>Founded: 1975</t>
-  </si>
-  <si>
     <t>GM Products</t>
   </si>
   <si>
@@ -677,6 +674,9 @@
   </si>
   <si>
     <t>Q225</t>
+  </si>
+  <si>
+    <t>Founded: 1975 Bill Gates</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1298,7 @@
         <v>7433.9822350000004</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>71555</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>44970</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
@@ -1357,42 +1357,42 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>138</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="30">
         <f>Model!U14/Model!$U$19</f>
         <v>0.31709924037826059</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="30">
         <f>Model!U15/Model!$U$19</f>
         <v>0.42983493933633049</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="19"/>
       <c r="G10" t="s">
@@ -1401,18 +1401,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="30">
         <f>Model!U16/Model!$U$19</f>
         <v>0.25306582028540892</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="19"/>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1431,42 +1431,42 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1501,40 +1501,40 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
@@ -1556,7 +1556,7 @@
         <v>17</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3">
         <v>18388</v>
@@ -1670,7 +1670,7 @@
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3">
         <v>11577</v>
@@ -1740,7 +1740,7 @@
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3">
         <v>5313</v>
@@ -1810,7 +1810,7 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3">
         <v>3610</v>
@@ -1880,7 +1880,7 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3">
         <v>3628</v>
@@ -1950,7 +1950,7 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3">
         <v>2913</v>
@@ -2020,7 +2020,7 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3">
         <v>1929</v>
@@ -2090,7 +2090,7 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3">
         <v>1260</v>
@@ -2160,7 +2160,7 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3">
         <v>1448</v>
@@ -2300,7 +2300,7 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3">
         <v>16465</v>
@@ -2370,7 +2370,7 @@
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="3">
         <v>20325</v>
@@ -2440,7 +2440,7 @@
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3">
         <v>13332</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" ref="C38:N38" si="24">(C17-C20)/C17</f>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" ref="C39:N39" si="27">(C18-C21)/C18</f>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="117" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -17589,7 +17589,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -17613,17 +17613,17 @@
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -17637,12 +17637,12 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="N4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -17653,12 +17653,12 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="N5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -17669,12 +17669,12 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="N6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -17685,12 +17685,12 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -17704,12 +17704,12 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="N8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -17723,12 +17723,12 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="N9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -17739,12 +17739,12 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="N10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -17755,17 +17755,17 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="N11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -17776,12 +17776,12 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -17792,12 +17792,12 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -17808,12 +17808,12 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -17824,12 +17824,12 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -17840,17 +17840,17 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -17861,12 +17861,12 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -17877,12 +17877,12 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="N23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -17893,12 +17893,12 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="N24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -17909,12 +17909,12 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="N25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -17925,12 +17925,12 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -17941,12 +17941,12 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="N27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -17957,12 +17957,12 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="N28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -17973,12 +17973,12 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="N29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -17989,12 +17989,12 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="N30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -18009,7 +18009,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -18020,7 +18020,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -18050,7 +18050,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -18061,7 +18061,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -18072,12 +18072,12 @@
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="N40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="26"/>
@@ -18088,12 +18088,12 @@
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="N41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
@@ -18104,19 +18104,19 @@
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="N42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -18127,12 +18127,12 @@
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="N44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -18143,12 +18143,12 @@
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
       <c r="N45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
@@ -18159,12 +18159,12 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
       <c r="N46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -18175,7 +18175,7 @@
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="N47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C45D8F3-BA29-4357-9AB2-273F295D26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5752108-A575-4192-B43F-57EE8597E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{2536FD49-C228-45BB-BAA0-A0BFE1B4D82F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{2536FD49-C228-45BB-BAA0-A0BFE1B4D82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="211">
   <si>
     <t>Microsoft</t>
   </si>
@@ -157,15 +157,9 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
     <t>Cash &amp; Cash Equivalents</t>
   </si>
   <si>
@@ -673,10 +667,10 @@
     <t>Free Cash Flow</t>
   </si>
   <si>
-    <t>Q225</t>
-  </si>
-  <si>
     <t>Founded: 1975 Bill Gates</t>
+  </si>
+  <si>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A91CD0-4B5B-46BB-BF54-99530B47ED35}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>359.8</v>
+        <v>428.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1295,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>7433.9822350000004</v>
+        <v>7432.5428650000003</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1310,7 +1304,7 @@
       </c>
       <c r="H4" s="3">
         <f>H3*H2</f>
-        <v>2674746.8081530002</v>
+        <v>3184844.6176525</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1321,11 +1315,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="3">
-        <f>17482+54073</f>
-        <v>71555</v>
+        <f>28828+50790</f>
+        <v>79618</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,86 +1327,86 @@
         <v>6</v>
       </c>
       <c r="H6" s="3">
-        <f>0+5248+39722</f>
-        <v>44970</v>
+        <f>39882+2999+0</f>
+        <v>42881</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="3">
         <f>H4-H5+H6</f>
-        <v>2648161.8081530002</v>
+        <v>3148107.6176525</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="30">
-        <f>Model!U14/Model!$U$19</f>
+        <f>Model!U13/Model!$U$18</f>
         <v>0.31709924037826059</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="30">
-        <f>Model!U15/Model!$U$19</f>
+        <f>Model!U14/Model!$U$18</f>
         <v>0.42983493933633049</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E10" s="19"/>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="30">
-        <f>Model!U16/Model!$U$19</f>
+        <f>Model!U15/Model!$U$18</f>
         <v>0.25306582028540892</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="19"/>
       <c r="G11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1423,50 +1417,50 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1479,13 +1473,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247F6C03-6F29-43A9-8F69-00F6AF9954D6}">
-  <dimension ref="A1:AF625"/>
+  <dimension ref="A1:AF623"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,40 +1495,40 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
@@ -1556,35 +1550,69 @@
         <v>17</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="A3" s="10"/>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3">
+        <v>18388</v>
+      </c>
+      <c r="D3" s="3">
+        <v>19594</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20025</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F17" si="0">T3-SUM(C3:E3)</f>
+        <v>21963</v>
+      </c>
+      <c r="G3" s="3">
+        <v>22308</v>
+      </c>
+      <c r="H3" s="3">
+        <v>23953</v>
+      </c>
+      <c r="I3" s="3">
+        <v>24832</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J17" si="1">+U3-SUM(G3:I3)</f>
+        <v>26633</v>
+      </c>
+      <c r="K3" s="3">
+        <v>22155</v>
+      </c>
+      <c r="L3" s="3">
+        <v>23641</v>
+      </c>
+      <c r="M3" s="3">
+        <v>24761</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="P3" s="3">
+        <v>32622</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>41379</v>
+      </c>
+      <c r="R3" s="3">
+        <v>52589</v>
+      </c>
+      <c r="S3" s="3">
+        <v>67350</v>
+      </c>
+      <c r="T3" s="3">
+        <v>79970</v>
+      </c>
+      <c r="U3" s="3">
+        <v>97726</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -1600,60 +1628,62 @@
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3">
-        <v>18388</v>
+        <v>11577</v>
       </c>
       <c r="D4" s="3">
-        <v>19594</v>
+        <v>11867</v>
       </c>
       <c r="E4" s="3">
-        <v>20025</v>
+        <v>12468</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F18" si="0">T4-SUM(C4:E4)</f>
-        <v>21963</v>
+        <f t="shared" si="0"/>
+        <v>12936</v>
       </c>
       <c r="G4" s="3">
-        <v>22308</v>
+        <v>13140</v>
       </c>
       <c r="H4" s="3">
-        <v>23953</v>
+        <v>13477</v>
       </c>
       <c r="I4" s="3">
-        <v>24832</v>
+        <v>13911</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J18" si="1">+U4-SUM(G4:I4)</f>
-        <v>26633</v>
+        <f t="shared" si="1"/>
+        <v>14347</v>
       </c>
       <c r="K4" s="3">
-        <v>22155</v>
+        <v>20449</v>
       </c>
       <c r="L4" s="3">
-        <v>23641</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>21117</v>
+      </c>
+      <c r="M4" s="3">
+        <v>21883</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3">
-        <v>32622</v>
+        <v>31769</v>
       </c>
       <c r="Q4" s="3">
-        <v>41379</v>
+        <v>35316</v>
       </c>
       <c r="R4" s="3">
-        <v>52589</v>
+        <v>39872</v>
       </c>
       <c r="S4" s="3">
-        <v>67350</v>
+        <v>44970</v>
       </c>
       <c r="T4" s="3">
-        <v>79970</v>
+        <v>48848</v>
       </c>
       <c r="U4" s="3">
-        <v>97726</v>
+        <v>54875</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1670,60 +1700,62 @@
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3">
-        <v>11577</v>
+        <v>5313</v>
       </c>
       <c r="D5" s="3">
-        <v>11867</v>
+        <v>4758</v>
       </c>
       <c r="E5" s="3">
-        <v>12468</v>
+        <v>5328</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>12936</v>
+        <v>6108</v>
       </c>
       <c r="G5" s="3">
-        <v>13140</v>
+        <v>5567</v>
       </c>
       <c r="H5" s="3">
-        <v>13477</v>
+        <v>7111</v>
       </c>
       <c r="I5" s="3">
-        <v>13911</v>
+        <v>5929</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>14347</v>
+        <v>4637</v>
       </c>
       <c r="K5" s="3">
-        <v>20449</v>
+        <v>5621</v>
       </c>
       <c r="L5" s="3">
-        <v>21117</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>6581</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5721</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3">
-        <v>31769</v>
+        <v>11386</v>
       </c>
       <c r="Q5" s="3">
-        <v>35316</v>
+        <v>11575</v>
       </c>
       <c r="R5" s="3">
-        <v>39872</v>
+        <v>15370</v>
       </c>
       <c r="S5" s="3">
-        <v>44970</v>
+        <v>24732</v>
       </c>
       <c r="T5" s="3">
-        <v>48848</v>
+        <v>21507</v>
       </c>
       <c r="U5" s="3">
-        <v>54875</v>
+        <v>23244</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1740,60 +1772,62 @@
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3">
-        <v>5313</v>
+        <v>3610</v>
       </c>
       <c r="D6" s="3">
-        <v>4758</v>
+        <v>4808</v>
       </c>
       <c r="E6" s="3">
-        <v>5328</v>
+        <v>3607</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>6108</v>
+        <v>3441</v>
       </c>
       <c r="G6" s="3">
-        <v>5567</v>
+        <v>3919</v>
       </c>
       <c r="H6" s="3">
-        <v>7111</v>
+        <v>5262</v>
       </c>
       <c r="I6" s="3">
-        <v>5929</v>
+        <v>5451</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>4637</v>
+        <v>6871</v>
       </c>
       <c r="K6" s="3">
-        <v>5621</v>
+        <v>4329</v>
       </c>
       <c r="L6" s="3">
-        <v>6581</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>4587</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4311</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3">
-        <v>11386</v>
+        <v>20395</v>
       </c>
       <c r="Q6" s="3">
-        <v>11575</v>
+        <v>22294</v>
       </c>
       <c r="R6" s="3">
-        <v>15370</v>
+        <v>23227</v>
       </c>
       <c r="S6" s="3">
-        <v>24732</v>
+        <v>16230</v>
       </c>
       <c r="T6" s="3">
-        <v>21507</v>
+        <v>15466</v>
       </c>
       <c r="U6" s="3">
-        <v>23244</v>
+        <v>21503</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1810,60 +1844,62 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3">
-        <v>3610</v>
+        <v>3628</v>
       </c>
       <c r="D7" s="3">
-        <v>4808</v>
+        <v>3833</v>
       </c>
       <c r="E7" s="3">
-        <v>3607</v>
+        <v>3659</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>3441</v>
+        <v>3869</v>
       </c>
       <c r="G7" s="3">
-        <v>3919</v>
+        <v>3913</v>
       </c>
       <c r="H7" s="3">
-        <v>5262</v>
+        <v>4195</v>
       </c>
       <c r="I7" s="3">
-        <v>5451</v>
+        <v>4013</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>6871</v>
+        <v>4251</v>
       </c>
       <c r="K7" s="3">
-        <v>4329</v>
+        <v>4292</v>
       </c>
       <c r="L7" s="3">
-        <v>4587</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>4512</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4144</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3">
-        <v>20395</v>
+        <v>6754</v>
       </c>
       <c r="Q7" s="3">
-        <v>22294</v>
+        <v>8077</v>
       </c>
       <c r="R7" s="3">
-        <v>23227</v>
+        <v>10289</v>
       </c>
       <c r="S7" s="3">
-        <v>16230</v>
+        <v>13631</v>
       </c>
       <c r="T7" s="3">
-        <v>15466</v>
+        <v>14989</v>
       </c>
       <c r="U7" s="3">
-        <v>21503</v>
+        <v>16372</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1880,60 +1916,62 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="3">
-        <v>3628</v>
+        <v>2913</v>
       </c>
       <c r="D8" s="3">
-        <v>3833</v>
+        <v>3209</v>
       </c>
       <c r="E8" s="3">
-        <v>3659</v>
+        <v>3036</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>3869</v>
+        <v>3000</v>
       </c>
       <c r="G8" s="3">
-        <v>3913</v>
+        <v>3053</v>
       </c>
       <c r="H8" s="3">
-        <v>4195</v>
+        <v>3220</v>
       </c>
       <c r="I8" s="3">
-        <v>4013</v>
+        <v>3134</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>4251</v>
+        <v>3169</v>
       </c>
       <c r="K8" s="3">
-        <v>4292</v>
+        <v>3225</v>
       </c>
       <c r="L8" s="3">
-        <v>4512</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>3558</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3504</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3">
-        <v>6754</v>
+        <v>7628</v>
       </c>
       <c r="Q8" s="3">
-        <v>8077</v>
+        <v>7740</v>
       </c>
       <c r="R8" s="3">
-        <v>10289</v>
+        <v>8528</v>
       </c>
       <c r="S8" s="3">
-        <v>13631</v>
+        <v>11526</v>
       </c>
       <c r="T8" s="3">
-        <v>14989</v>
+        <v>12158</v>
       </c>
       <c r="U8" s="3">
-        <v>16372</v>
+        <v>12576</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1950,60 +1988,62 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3">
-        <v>2913</v>
+        <v>1929</v>
       </c>
       <c r="D9" s="3">
-        <v>3209</v>
+        <v>1907</v>
       </c>
       <c r="E9" s="3">
-        <v>3036</v>
+        <v>2047</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>2017</v>
       </c>
       <c r="G9" s="3">
-        <v>3053</v>
+        <v>1944</v>
       </c>
       <c r="H9" s="3">
-        <v>3220</v>
+        <v>1917</v>
       </c>
       <c r="I9" s="3">
-        <v>3134</v>
+        <v>1861</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>3169</v>
+        <v>1872</v>
       </c>
       <c r="K9" s="3">
-        <v>3225</v>
+        <v>1928</v>
       </c>
       <c r="L9" s="3">
-        <v>3558</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>1892</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1946</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3">
-        <v>7628</v>
+        <v>6124</v>
       </c>
       <c r="Q9" s="3">
-        <v>7740</v>
+        <v>6409</v>
       </c>
       <c r="R9" s="3">
-        <v>8528</v>
+        <v>6943</v>
       </c>
       <c r="S9" s="3">
-        <v>11526</v>
+        <v>7605</v>
       </c>
       <c r="T9" s="3">
-        <v>12158</v>
+        <v>7900</v>
       </c>
       <c r="U9" s="3">
-        <v>12576</v>
+        <v>7594</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2020,60 +2060,62 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3">
-        <v>1929</v>
+        <v>1260</v>
       </c>
       <c r="D10" s="3">
-        <v>1907</v>
+        <v>1302</v>
       </c>
       <c r="E10" s="3">
-        <v>2047</v>
+        <v>1389</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>2017</v>
+        <v>1486</v>
       </c>
       <c r="G10" s="3">
-        <v>1944</v>
+        <v>1540</v>
       </c>
       <c r="H10" s="3">
-        <v>1917</v>
+        <v>1576</v>
       </c>
       <c r="I10" s="3">
-        <v>1861</v>
+        <v>1646</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>1719</v>
       </c>
       <c r="K10" s="3">
-        <v>1928</v>
+        <v>1849</v>
       </c>
       <c r="L10" s="3">
-        <v>1892</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>1913</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1929</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3">
-        <v>6124</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>6409</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>6943</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>7605</v>
+        <v>4687</v>
       </c>
       <c r="T10" s="3">
-        <v>7900</v>
+        <v>5437</v>
       </c>
       <c r="U10" s="3">
-        <v>7594</v>
+        <v>6481</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2090,60 +2132,62 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3">
-        <v>1260</v>
+        <v>1448</v>
       </c>
       <c r="D11" s="3">
-        <v>1302</v>
+        <v>1430</v>
       </c>
       <c r="E11" s="3">
-        <v>1389</v>
+        <v>1282</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>1486</v>
+        <v>1361</v>
       </c>
       <c r="G11" s="3">
-        <v>1540</v>
+        <v>1125</v>
       </c>
       <c r="H11" s="3">
-        <v>1576</v>
+        <v>1298</v>
       </c>
       <c r="I11" s="3">
-        <v>1646</v>
+        <v>1067</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>1719</v>
+        <v>1216</v>
       </c>
       <c r="K11" s="3">
-        <v>1849</v>
+        <v>1727</v>
       </c>
       <c r="L11" s="3">
-        <v>1913</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>1821</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1821</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>6095</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>6457</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
+        <v>6791</v>
       </c>
       <c r="S11" s="3">
-        <v>4687</v>
+        <v>7306</v>
       </c>
       <c r="T11" s="3">
-        <v>5437</v>
+        <v>5521</v>
       </c>
       <c r="U11" s="3">
-        <v>6481</v>
+        <v>4706</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2160,60 +2204,62 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3">
-        <v>1448</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3">
-        <v>1430</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
-        <v>1282</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>1361</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3">
-        <v>1125</v>
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>1298</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3">
-        <v>1067</v>
+        <v>14</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>1216</v>
+        <v>12</v>
       </c>
       <c r="K12" s="3">
-        <v>1727</v>
+        <v>10</v>
       </c>
       <c r="L12" s="3">
-        <v>1821</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>46</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3">
-        <v>6095</v>
+        <v>3070</v>
       </c>
       <c r="Q12" s="3">
-        <v>6457</v>
+        <v>3768</v>
       </c>
       <c r="R12" s="3">
-        <v>6791</v>
+        <v>4479</v>
       </c>
       <c r="S12" s="3">
-        <v>7306</v>
+        <v>233</v>
       </c>
       <c r="T12" s="3">
-        <v>5521</v>
+        <v>119</v>
       </c>
       <c r="U12" s="3">
-        <v>4706</v>
+        <v>45</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2230,60 +2276,62 @@
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3">
-        <v>56</v>
+        <v>16465</v>
       </c>
       <c r="D13" s="3">
-        <v>39</v>
+        <v>17002</v>
       </c>
       <c r="E13" s="3">
-        <v>16</v>
+        <v>17516</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18291</v>
       </c>
       <c r="G13" s="3">
-        <v>8</v>
+        <v>18592</v>
       </c>
       <c r="H13" s="3">
-        <v>11</v>
+        <v>19249</v>
       </c>
       <c r="I13" s="3">
-        <v>14</v>
+        <v>19570</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20317</v>
       </c>
       <c r="K13" s="3">
-        <v>10</v>
+        <v>28317</v>
       </c>
       <c r="L13" s="3">
-        <v>10</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>29437</v>
+      </c>
+      <c r="M13" s="3">
+        <v>29944</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3">
-        <v>3070</v>
+        <v>41160</v>
       </c>
       <c r="Q13" s="3">
-        <v>3768</v>
+        <v>46398</v>
       </c>
       <c r="R13" s="3">
-        <v>4479</v>
+        <v>53915</v>
       </c>
       <c r="S13" s="3">
-        <v>233</v>
+        <v>63364</v>
       </c>
       <c r="T13" s="3">
-        <v>119</v>
+        <v>69274</v>
       </c>
       <c r="U13" s="3">
-        <v>45</v>
+        <v>77728</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2300,60 +2348,62 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3">
-        <v>16465</v>
+        <v>20325</v>
       </c>
       <c r="D14" s="3">
-        <v>17002</v>
+        <v>21508</v>
       </c>
       <c r="E14" s="3">
-        <v>17516</v>
+        <v>22081</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>18291</v>
+        <v>23993</v>
       </c>
       <c r="G14" s="3">
-        <v>18592</v>
+        <v>24259</v>
       </c>
       <c r="H14" s="3">
-        <v>19249</v>
+        <v>25880</v>
       </c>
       <c r="I14" s="3">
-        <v>19570</v>
+        <v>26708</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>20317</v>
+        <v>28515</v>
       </c>
       <c r="K14" s="3">
-        <v>28317</v>
+        <v>24092</v>
       </c>
       <c r="L14" s="3">
-        <v>29437</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>25544</v>
+      </c>
+      <c r="M14" s="3">
+        <v>26751</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
-        <v>41160</v>
+        <v>38985</v>
       </c>
       <c r="Q14" s="3">
-        <v>46398</v>
+        <v>48366</v>
       </c>
       <c r="R14" s="3">
-        <v>53915</v>
+        <v>60080</v>
       </c>
       <c r="S14" s="3">
-        <v>63364</v>
+        <v>74965</v>
       </c>
       <c r="T14" s="3">
-        <v>69274</v>
+        <v>87907</v>
       </c>
       <c r="U14" s="3">
-        <v>77728</v>
+        <v>105362</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2370,60 +2420,62 @@
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3">
-        <v>20325</v>
+        <v>13332</v>
       </c>
       <c r="D15" s="3">
-        <v>21508</v>
+        <v>14237</v>
       </c>
       <c r="E15" s="3">
-        <v>22081</v>
+        <v>13260</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>23993</v>
+        <v>13905</v>
       </c>
       <c r="G15" s="3">
-        <v>24259</v>
+        <v>13666</v>
       </c>
       <c r="H15" s="3">
-        <v>25880</v>
+        <v>16891</v>
       </c>
       <c r="I15" s="3">
-        <v>26708</v>
+        <v>15580</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>28515</v>
+        <v>15895</v>
       </c>
       <c r="K15" s="3">
-        <v>24092</v>
+        <v>13176</v>
       </c>
       <c r="L15" s="3">
-        <v>25544</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>14651</v>
+      </c>
+      <c r="M15" s="3">
+        <v>13371</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3">
-        <v>38985</v>
+        <v>45698</v>
       </c>
       <c r="Q15" s="3">
-        <v>48366</v>
+        <v>48251</v>
       </c>
       <c r="R15" s="3">
-        <v>60080</v>
+        <v>54093</v>
       </c>
       <c r="S15" s="3">
-        <v>74965</v>
+        <v>59941</v>
       </c>
       <c r="T15" s="3">
-        <v>87907</v>
+        <v>54734</v>
       </c>
       <c r="U15" s="3">
-        <v>105362</v>
+        <v>62032</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -2438,62 +2490,63 @@
       <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
-        <v>13332</v>
+        <v>15741</v>
       </c>
       <c r="D16" s="3">
-        <v>14237</v>
+        <v>16517</v>
       </c>
       <c r="E16" s="3">
-        <v>13260</v>
+        <v>15588</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>13905</v>
+        <v>16853</v>
       </c>
       <c r="G16" s="3">
-        <v>13666</v>
+        <v>15535</v>
       </c>
       <c r="H16" s="3">
-        <v>16891</v>
+        <v>18941</v>
       </c>
       <c r="I16" s="3">
-        <v>15580</v>
+        <v>17080</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>15895</v>
+        <v>13217</v>
       </c>
       <c r="K16" s="3">
-        <v>13176</v>
+        <v>15272</v>
       </c>
       <c r="L16" s="3">
-        <v>14651</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>16219</v>
+      </c>
+      <c r="M16" s="3">
+        <v>15319</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
-        <v>45698</v>
+        <v>66069</v>
       </c>
       <c r="Q16" s="3">
-        <v>48251</v>
+        <v>68041</v>
       </c>
       <c r="R16" s="3">
-        <v>54093</v>
+        <v>71074</v>
       </c>
       <c r="S16" s="3">
-        <v>59941</v>
+        <v>72732</v>
       </c>
       <c r="T16" s="3">
-        <v>54734</v>
+        <v>64699</v>
       </c>
       <c r="U16" s="3">
-        <v>62032</v>
+        <v>64773</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2507,1142 +2560,1154 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
-        <v>15741</v>
+        <v>34381</v>
       </c>
       <c r="D17" s="3">
-        <v>16517</v>
+        <v>36230</v>
       </c>
       <c r="E17" s="3">
-        <v>15588</v>
+        <v>37269</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>16853</v>
+        <v>39336</v>
       </c>
       <c r="G17" s="3">
-        <v>15535</v>
+        <v>40982</v>
       </c>
       <c r="H17" s="3">
-        <v>18941</v>
+        <v>43079</v>
       </c>
       <c r="I17" s="3">
-        <v>17080</v>
+        <v>44778</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>13217</v>
+        <v>51510</v>
       </c>
       <c r="K17" s="3">
-        <v>15272</v>
+        <v>50313</v>
       </c>
       <c r="L17" s="3">
-        <v>16219</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>53413</v>
+      </c>
+      <c r="M17" s="3">
+        <v>54747</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
-        <v>66069</v>
+        <v>59774</v>
       </c>
       <c r="Q17" s="3">
-        <v>68041</v>
+        <v>74974</v>
       </c>
       <c r="R17" s="3">
-        <v>71074</v>
+        <v>97014</v>
       </c>
       <c r="S17" s="3">
-        <v>72732</v>
+        <v>125538</v>
       </c>
       <c r="T17" s="3">
-        <v>64699</v>
+        <v>147216</v>
       </c>
       <c r="U17" s="3">
-        <v>64773</v>
-      </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3">
-        <v>34381</v>
-      </c>
-      <c r="D18" s="3">
-        <v>36230</v>
-      </c>
-      <c r="E18" s="3">
-        <v>37269</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>39336</v>
-      </c>
-      <c r="G18" s="3">
-        <v>40982</v>
-      </c>
-      <c r="H18" s="3">
-        <v>43079</v>
-      </c>
-      <c r="I18" s="3">
-        <v>44778</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>51510</v>
-      </c>
-      <c r="K18" s="3">
-        <v>50313</v>
-      </c>
-      <c r="L18" s="3">
-        <v>53413</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3">
-        <v>59774</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>74974</v>
-      </c>
-      <c r="R18" s="3">
-        <v>97014</v>
-      </c>
-      <c r="S18" s="3">
-        <v>125538</v>
-      </c>
-      <c r="T18" s="3">
-        <v>147216</v>
-      </c>
-      <c r="U18" s="3">
         <v>180349</v>
       </c>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" ref="C19:N19" si="2">+C17+C18</f>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18:N18" si="2">+C16+C17</f>
         <v>50122</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D18" s="6">
         <f t="shared" si="2"/>
         <v>52747</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" ref="E19" si="3">+E17+E18</f>
+      <c r="E18" s="6">
+        <f t="shared" ref="E18" si="3">+E16+E17</f>
         <v>52857</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
         <v>56189</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G18" s="6">
         <f t="shared" si="2"/>
         <v>56517</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>62020</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I18" s="6">
         <f t="shared" si="2"/>
         <v>61858</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J18" s="6">
         <f t="shared" si="2"/>
         <v>64727</v>
       </c>
-      <c r="K19" s="6">
-        <f>+K17+K18</f>
+      <c r="K18" s="6">
+        <f>+K16+K17</f>
         <v>65585</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L18" s="6">
         <f t="shared" si="2"/>
         <v>69632</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M18" s="6">
+        <f t="shared" si="2"/>
+        <v>70066</v>
+      </c>
+      <c r="N18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="6">
-        <f t="shared" ref="P19:T19" si="4">+P17+P18</f>
+      <c r="O18" s="3"/>
+      <c r="P18" s="6">
+        <f t="shared" ref="P18:T18" si="4">+P16+P17</f>
         <v>125843</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q18" s="6">
         <f t="shared" si="4"/>
         <v>143015</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R18" s="6">
         <f t="shared" si="4"/>
         <v>168088</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S18" s="6">
         <f t="shared" si="4"/>
         <v>198270</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T18" s="6">
         <f t="shared" si="4"/>
         <v>211915</v>
       </c>
-      <c r="U19" s="6">
-        <f>+U17+U18</f>
+      <c r="U18" s="6">
+        <f>+U16+U17</f>
         <v>245122</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4302</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5690</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3941</v>
+      </c>
+      <c r="F19" s="3">
+        <f>T19-SUM(C19:E19)</f>
+        <v>3871</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3531</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5964</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4339</v>
+      </c>
+      <c r="J19" s="3">
+        <f>+U19-SUM(G19:I19)</f>
+        <v>1438</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3294</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3856</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3037</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3">
+        <v>16273</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>16017</v>
+      </c>
+      <c r="R19" s="3">
+        <v>18219</v>
+      </c>
+      <c r="S19" s="3">
+        <v>19064</v>
+      </c>
+      <c r="T19" s="3">
+        <v>17804</v>
+      </c>
+      <c r="U19" s="3">
+        <v>15272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3">
-        <v>4302</v>
+        <v>11150</v>
       </c>
       <c r="D20" s="3">
-        <v>5690</v>
+        <v>11798</v>
       </c>
       <c r="E20" s="3">
-        <v>3941</v>
+        <v>12187</v>
       </c>
       <c r="F20" s="3">
         <f>T20-SUM(C20:E20)</f>
-        <v>3871</v>
+        <v>12924</v>
       </c>
       <c r="G20" s="3">
-        <v>3531</v>
+        <v>12771</v>
       </c>
       <c r="H20" s="3">
-        <v>5964</v>
+        <v>13659</v>
       </c>
       <c r="I20" s="3">
-        <v>4339</v>
+        <v>14166</v>
       </c>
       <c r="J20" s="3">
         <f>+U20-SUM(G20:I20)</f>
-        <v>1438</v>
+        <v>18246</v>
       </c>
       <c r="K20" s="3">
-        <v>3294</v>
+        <v>16805</v>
       </c>
       <c r="L20" s="3">
-        <v>3856</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>17943</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18882</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3">
-        <v>16273</v>
+        <v>26637</v>
       </c>
       <c r="Q20" s="3">
-        <v>16017</v>
+        <v>30061</v>
       </c>
       <c r="R20" s="3">
-        <v>18219</v>
+        <v>34013</v>
       </c>
       <c r="S20" s="3">
-        <v>19064</v>
+        <v>43586</v>
       </c>
       <c r="T20" s="3">
-        <v>17804</v>
+        <v>48059</v>
       </c>
       <c r="U20" s="3">
-        <v>15272</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+        <v>58842</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
-        <v>11150</v>
+        <f t="shared" ref="C21:N21" si="5">+C18-SUM(C19:C20)</f>
+        <v>34670</v>
       </c>
       <c r="D21" s="3">
-        <v>11798</v>
+        <f t="shared" si="5"/>
+        <v>35259</v>
       </c>
       <c r="E21" s="3">
-        <v>12187</v>
+        <f t="shared" ref="E21" si="6">+E18-SUM(E19:E20)</f>
+        <v>36729</v>
       </c>
       <c r="F21" s="3">
-        <f>T21-SUM(C21:E21)</f>
-        <v>12924</v>
+        <f t="shared" si="5"/>
+        <v>39394</v>
       </c>
       <c r="G21" s="3">
-        <v>12771</v>
+        <f t="shared" si="5"/>
+        <v>40215</v>
       </c>
       <c r="H21" s="3">
-        <v>13659</v>
+        <f t="shared" si="5"/>
+        <v>42397</v>
       </c>
       <c r="I21" s="3">
-        <v>14166</v>
+        <f t="shared" si="5"/>
+        <v>43353</v>
       </c>
       <c r="J21" s="3">
-        <f>+U21-SUM(G21:I21)</f>
-        <v>18246</v>
+        <f t="shared" si="5"/>
+        <v>45043</v>
       </c>
       <c r="K21" s="3">
-        <v>16805</v>
+        <f t="shared" si="5"/>
+        <v>45486</v>
       </c>
       <c r="L21" s="3">
-        <v>17943</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+        <f t="shared" si="5"/>
+        <v>47833</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="5"/>
+        <v>48147</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
-        <v>26637</v>
+        <f t="shared" ref="P21:T21" si="7">+P18-SUM(P19:P20)</f>
+        <v>82933</v>
       </c>
       <c r="Q21" s="3">
-        <v>30061</v>
+        <f t="shared" si="7"/>
+        <v>96937</v>
       </c>
       <c r="R21" s="3">
-        <v>34013</v>
+        <f t="shared" si="7"/>
+        <v>115856</v>
       </c>
       <c r="S21" s="3">
-        <v>43586</v>
+        <f t="shared" si="7"/>
+        <v>135620</v>
       </c>
       <c r="T21" s="3">
-        <v>48059</v>
+        <f t="shared" si="7"/>
+        <v>146052</v>
       </c>
       <c r="U21" s="3">
-        <v>58842</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+        <f>+U18-SUM(U19:U20)</f>
+        <v>171008</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:N22" si="5">+C19-SUM(C20:C21)</f>
-        <v>34670</v>
+        <v>6628</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="5"/>
-        <v>35259</v>
+        <v>6844</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" ref="E22" si="6">+E19-SUM(E20:E21)</f>
-        <v>36729</v>
+        <v>6984</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="5"/>
-        <v>39394</v>
+        <f>T22-SUM(C22:E22)</f>
+        <v>6739</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="5"/>
-        <v>40215</v>
+        <v>6659</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="5"/>
-        <v>42397</v>
+        <v>7142</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="5"/>
-        <v>43353</v>
+        <v>7653</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="5"/>
-        <v>45043</v>
+        <f>+U22-SUM(G22:I22)</f>
+        <v>8056</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="5"/>
-        <v>45486</v>
+        <v>7544</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="5"/>
-        <v>47833</v>
+        <v>7917</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>8198</v>
+      </c>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
-        <f t="shared" ref="P22:T22" si="7">+P19-SUM(P20:P21)</f>
-        <v>82933</v>
+        <v>16876</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="7"/>
-        <v>96937</v>
+        <v>19269</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="7"/>
-        <v>115856</v>
+        <v>20716</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="7"/>
-        <v>135620</v>
+        <v>24512</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="7"/>
-        <v>146052</v>
+        <v>27195</v>
       </c>
       <c r="U22" s="3">
-        <f>+U19-SUM(U20:U21)</f>
-        <v>171008</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+        <v>29510</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
-        <v>6628</v>
+        <v>5126</v>
       </c>
       <c r="D23" s="3">
-        <v>6844</v>
+        <v>5679</v>
       </c>
       <c r="E23" s="3">
-        <v>6984</v>
+        <v>5750</v>
       </c>
       <c r="F23" s="3">
         <f>T23-SUM(C23:E23)</f>
-        <v>6739</v>
+        <v>6204</v>
       </c>
       <c r="G23" s="3">
-        <v>6659</v>
+        <v>5187</v>
       </c>
       <c r="H23" s="3">
-        <v>7142</v>
+        <v>6246</v>
       </c>
       <c r="I23" s="3">
-        <v>7653</v>
+        <v>6207</v>
       </c>
       <c r="J23" s="3">
         <f>+U23-SUM(G23:I23)</f>
-        <v>8056</v>
+        <v>6816</v>
       </c>
       <c r="K23" s="3">
-        <v>7544</v>
+        <v>5717</v>
       </c>
       <c r="L23" s="3">
-        <v>7917</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>6440</v>
+      </c>
+      <c r="M23" s="3">
+        <v>6212</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3">
-        <v>16876</v>
+        <v>18213</v>
       </c>
       <c r="Q23" s="3">
-        <v>19269</v>
+        <v>19598</v>
       </c>
       <c r="R23" s="3">
-        <v>20716</v>
+        <v>20117</v>
       </c>
       <c r="S23" s="3">
-        <v>24512</v>
+        <v>21825</v>
       </c>
       <c r="T23" s="3">
-        <v>27195</v>
+        <v>22759</v>
       </c>
       <c r="U23" s="3">
-        <v>29510</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+        <v>24456</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3">
-        <v>5126</v>
+        <v>1398</v>
       </c>
       <c r="D24" s="3">
-        <v>5679</v>
+        <v>2337</v>
       </c>
       <c r="E24" s="3">
-        <v>5750</v>
+        <v>1643</v>
       </c>
       <c r="F24" s="3">
         <f>T24-SUM(C24:E24)</f>
-        <v>6204</v>
+        <v>2197</v>
       </c>
       <c r="G24" s="3">
-        <v>5187</v>
+        <v>1474</v>
       </c>
       <c r="H24" s="3">
-        <v>6246</v>
+        <v>1977</v>
       </c>
       <c r="I24" s="3">
-        <v>6207</v>
+        <v>1912</v>
       </c>
       <c r="J24" s="3">
         <f>+U24-SUM(G24:I24)</f>
-        <v>6816</v>
+        <v>2246</v>
       </c>
       <c r="K24" s="3">
-        <v>5717</v>
+        <v>1673</v>
       </c>
       <c r="L24" s="3">
-        <v>6440</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>1823</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1737</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3">
-        <v>18213</v>
+        <v>4885</v>
       </c>
       <c r="Q24" s="3">
-        <v>19598</v>
+        <v>5111</v>
       </c>
       <c r="R24" s="3">
-        <v>20117</v>
+        <v>5107</v>
       </c>
       <c r="S24" s="3">
-        <v>21825</v>
+        <v>5900</v>
       </c>
       <c r="T24" s="3">
-        <v>22759</v>
+        <v>7575</v>
       </c>
       <c r="U24" s="3">
-        <v>24456</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+        <v>7609</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>1398</v>
+        <f t="shared" ref="C25:N25" si="8">+C21-SUM(C22:C24)</f>
+        <v>21518</v>
       </c>
       <c r="D25" s="3">
-        <v>2337</v>
+        <f t="shared" si="8"/>
+        <v>20399</v>
       </c>
       <c r="E25" s="3">
-        <v>1643</v>
+        <f t="shared" ref="E25" si="9">+E21-SUM(E22:E24)</f>
+        <v>22352</v>
       </c>
       <c r="F25" s="3">
-        <f>T25-SUM(C25:E25)</f>
-        <v>2197</v>
+        <f t="shared" si="8"/>
+        <v>24254</v>
       </c>
       <c r="G25" s="3">
-        <v>1474</v>
+        <f t="shared" si="8"/>
+        <v>26895</v>
       </c>
       <c r="H25" s="3">
-        <v>1977</v>
+        <f t="shared" si="8"/>
+        <v>27032</v>
       </c>
       <c r="I25" s="3">
-        <v>1912</v>
+        <f t="shared" si="8"/>
+        <v>27581</v>
       </c>
       <c r="J25" s="3">
-        <f>+U25-SUM(G25:I25)</f>
-        <v>2246</v>
+        <f t="shared" si="8"/>
+        <v>27925</v>
       </c>
       <c r="K25" s="3">
-        <v>1673</v>
+        <f t="shared" si="8"/>
+        <v>30552</v>
       </c>
       <c r="L25" s="3">
-        <v>1823</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+        <f t="shared" si="8"/>
+        <v>31653</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="8"/>
+        <v>32000</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3">
-        <v>4885</v>
+        <f t="shared" ref="P25:T25" si="10">+P21-SUM(P22:P24)</f>
+        <v>42959</v>
       </c>
       <c r="Q25" s="3">
-        <v>5111</v>
+        <f t="shared" si="10"/>
+        <v>52959</v>
       </c>
       <c r="R25" s="3">
-        <v>5107</v>
+        <f t="shared" si="10"/>
+        <v>69916</v>
       </c>
       <c r="S25" s="3">
-        <v>5900</v>
+        <f t="shared" si="10"/>
+        <v>83383</v>
       </c>
       <c r="T25" s="3">
-        <v>7575</v>
+        <f t="shared" si="10"/>
+        <v>88523</v>
       </c>
       <c r="U25" s="3">
-        <v>7609</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+        <f>+U21-SUM(U22:U24)</f>
+        <v>109433</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:N26" si="8">+C22-SUM(C23:C25)</f>
-        <v>21518</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="8"/>
-        <v>20399</v>
+        <v>-60</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" ref="E26" si="9">+E22-SUM(E23:E25)</f>
-        <v>22352</v>
+        <v>321</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="8"/>
-        <v>24254</v>
+        <f>T26-SUM(C26:E26)</f>
+        <v>473</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="8"/>
-        <v>26895</v>
+        <v>389</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="8"/>
-        <v>27032</v>
+        <v>-506</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="8"/>
-        <v>27581</v>
+        <v>-854</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="8"/>
-        <v>27925</v>
+        <f>+U26-SUM(G26:I26)</f>
+        <v>-675</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="8"/>
-        <v>30552</v>
+        <v>-283</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="8"/>
-        <v>31653</v>
+        <v>-2288</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>-623</v>
+      </c>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3">
-        <f t="shared" ref="P26:T26" si="10">+P22-SUM(P23:P25)</f>
-        <v>42959</v>
+        <v>729</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="10"/>
-        <v>52959</v>
+        <v>77</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="10"/>
-        <v>69916</v>
+        <v>1186</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="10"/>
-        <v>83383</v>
+        <v>333</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="10"/>
-        <v>88523</v>
+        <v>788</v>
       </c>
       <c r="U26" s="3">
-        <f>+U22-SUM(U23:U25)</f>
-        <v>109433</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+        <v>-1646</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3">
-        <v>54</v>
+        <f t="shared" ref="C27:N27" si="11">C25+C26</f>
+        <v>21572</v>
       </c>
       <c r="D27" s="3">
-        <v>-60</v>
+        <f t="shared" si="11"/>
+        <v>20339</v>
       </c>
       <c r="E27" s="3">
-        <v>321</v>
+        <f t="shared" ref="E27" si="12">E25+E26</f>
+        <v>22673</v>
       </c>
       <c r="F27" s="3">
-        <f>T27-SUM(C27:E27)</f>
-        <v>473</v>
+        <f t="shared" si="11"/>
+        <v>24727</v>
       </c>
       <c r="G27" s="3">
-        <v>389</v>
+        <f t="shared" si="11"/>
+        <v>27284</v>
       </c>
       <c r="H27" s="3">
-        <v>-506</v>
+        <f t="shared" si="11"/>
+        <v>26526</v>
       </c>
       <c r="I27" s="3">
-        <v>-854</v>
+        <f t="shared" si="11"/>
+        <v>26727</v>
       </c>
       <c r="J27" s="3">
-        <f>+U27-SUM(G27:I27)</f>
-        <v>-675</v>
+        <f t="shared" si="11"/>
+        <v>27250</v>
       </c>
       <c r="K27" s="3">
-        <v>-283</v>
+        <f t="shared" si="11"/>
+        <v>30269</v>
       </c>
       <c r="L27" s="3">
-        <v>-2288</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+        <f t="shared" si="11"/>
+        <v>29365</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="11"/>
+        <v>31377</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3">
-        <v>729</v>
+        <f t="shared" ref="P27:T27" si="13">P25+P26</f>
+        <v>43688</v>
       </c>
       <c r="Q27" s="3">
-        <v>77</v>
+        <f t="shared" si="13"/>
+        <v>53036</v>
       </c>
       <c r="R27" s="3">
-        <v>1186</v>
+        <f t="shared" si="13"/>
+        <v>71102</v>
       </c>
       <c r="S27" s="3">
-        <v>333</v>
+        <f t="shared" si="13"/>
+        <v>83716</v>
       </c>
       <c r="T27" s="3">
-        <v>788</v>
+        <f t="shared" si="13"/>
+        <v>89311</v>
       </c>
       <c r="U27" s="3">
-        <v>-1646</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+        <f>U25+U26</f>
+        <v>107787</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:N28" si="11">C26+C27</f>
-        <v>21572</v>
+        <v>4016</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="11"/>
-        <v>20339</v>
+        <v>3914</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ref="E28" si="12">E26+E27</f>
-        <v>22673</v>
+        <v>4374</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="11"/>
-        <v>24727</v>
+        <f>T28-SUM(C28:E28)</f>
+        <v>4646</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="11"/>
-        <v>27284</v>
+        <v>4994</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="11"/>
-        <v>26526</v>
+        <v>4656</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="11"/>
-        <v>26727</v>
+        <v>4788</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="11"/>
-        <v>27250</v>
+        <f>+U28-SUM(G28:I28)</f>
+        <v>5213</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="11"/>
-        <v>30269</v>
+        <v>5602</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="11"/>
-        <v>29365</v>
+        <v>5257</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>5553</v>
+      </c>
+      <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3">
-        <f t="shared" ref="P28:T28" si="13">P26+P27</f>
-        <v>43688</v>
+        <v>4448</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="13"/>
-        <v>53036</v>
+        <v>8755</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="13"/>
-        <v>71102</v>
+        <v>9831</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="13"/>
-        <v>83716</v>
+        <v>10978</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="13"/>
-        <v>89311</v>
+        <v>16950</v>
       </c>
       <c r="U28" s="3">
-        <f>U26+U27</f>
-        <v>107787</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+        <v>19651</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
-        <v>4016</v>
+        <f t="shared" ref="C29:N29" si="14">+C27-C28</f>
+        <v>17556</v>
       </c>
       <c r="D29" s="3">
-        <v>3914</v>
+        <f t="shared" si="14"/>
+        <v>16425</v>
       </c>
       <c r="E29" s="3">
-        <v>4374</v>
+        <f t="shared" ref="E29" si="15">+E27-E28</f>
+        <v>18299</v>
       </c>
       <c r="F29" s="3">
-        <f>T29-SUM(C29:E29)</f>
-        <v>4646</v>
+        <f t="shared" si="14"/>
+        <v>20081</v>
       </c>
       <c r="G29" s="3">
-        <v>4994</v>
+        <f t="shared" si="14"/>
+        <v>22290</v>
       </c>
       <c r="H29" s="3">
-        <v>4656</v>
+        <f t="shared" si="14"/>
+        <v>21870</v>
       </c>
       <c r="I29" s="3">
-        <v>4788</v>
+        <f t="shared" si="14"/>
+        <v>21939</v>
       </c>
       <c r="J29" s="3">
-        <f>+U29-SUM(G29:I29)</f>
-        <v>5213</v>
+        <f t="shared" si="14"/>
+        <v>22037</v>
       </c>
       <c r="K29" s="3">
-        <v>5602</v>
+        <f t="shared" si="14"/>
+        <v>24667</v>
       </c>
       <c r="L29" s="3">
-        <v>5257</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+        <f t="shared" si="14"/>
+        <v>24108</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="14"/>
+        <v>25824</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3">
-        <v>4448</v>
+        <f t="shared" ref="P29:T29" si="16">+P27-P28</f>
+        <v>39240</v>
       </c>
       <c r="Q29" s="3">
-        <v>8755</v>
-      </c>
-      <c r="R29" s="3">
-        <v>9831</v>
-      </c>
-      <c r="S29" s="3">
-        <v>10978</v>
-      </c>
-      <c r="T29" s="3">
-        <v>16950</v>
-      </c>
-      <c r="U29" s="3">
-        <v>19651</v>
-      </c>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:N30" si="14">+C28-C29</f>
-        <v>17556</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="14"/>
-        <v>16425</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" ref="E30" si="15">+E28-E29</f>
-        <v>18299</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="14"/>
-        <v>20081</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="14"/>
-        <v>22290</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="14"/>
-        <v>21870</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="14"/>
-        <v>21939</v>
-      </c>
-      <c r="J30" s="3">
-        <f t="shared" si="14"/>
-        <v>22037</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="14"/>
-        <v>24667</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="14"/>
-        <v>24108</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3">
-        <f t="shared" ref="P30:T30" si="16">+P28-P29</f>
-        <v>39240</v>
-      </c>
-      <c r="Q30" s="3">
         <f t="shared" si="16"/>
         <v>44281</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R29" s="3">
         <f t="shared" si="16"/>
         <v>61271</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S29" s="3">
         <f t="shared" si="16"/>
         <v>72738</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T29" s="3">
         <f t="shared" si="16"/>
         <v>72361</v>
       </c>
-      <c r="U30" s="3">
-        <f>+U28-U29</f>
+      <c r="U29" s="3">
+        <f>+U27-U28</f>
         <v>88136</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <f t="shared" ref="C32:N32" si="17">C30/C33</f>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:N31" si="17">C29/C32</f>
         <v>2.3542979750569932</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D31" s="7">
         <f t="shared" si="17"/>
         <v>2.2044020936787008</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E31" s="7">
         <f t="shared" si="17"/>
         <v>2.4592124714420103</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F31" s="7">
         <f t="shared" si="17"/>
         <v>2.6968842331453131</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G31" s="7">
         <f t="shared" si="17"/>
         <v>3.0004038228563736</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H31" s="7">
         <f t="shared" si="17"/>
         <v>2.9426803013993541</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I31" s="7">
         <f t="shared" si="17"/>
         <v>2.952361727896649</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J31" s="7">
         <f t="shared" si="17"/>
         <v>2.9655497241286501</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K31" s="7">
         <f t="shared" si="17"/>
         <v>3.3185793084891699</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L31" s="7">
         <f t="shared" si="17"/>
         <v>3.2425016812373908</v>
       </c>
-      <c r="M32" s="7" t="e">
+      <c r="M31" s="7">
+        <f t="shared" si="17"/>
+        <v>3.4737691686844228</v>
+      </c>
+      <c r="N31" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="7">
-        <f t="shared" ref="P32:T32" si="18">P30/P33</f>
+      <c r="O31" s="3"/>
+      <c r="P31" s="7">
+        <f t="shared" ref="P31:T31" si="18">P29/P32</f>
         <v>5.114036230939659</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q31" s="7">
         <f t="shared" si="18"/>
         <v>5.8187910643889618</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R31" s="7">
         <f t="shared" si="18"/>
         <v>8.1185901682787858</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S31" s="7">
         <f t="shared" si="18"/>
         <v>9.7035752401280675</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T31" s="7">
         <f t="shared" si="18"/>
         <v>9.7181036798280953</v>
       </c>
-      <c r="U32" s="7">
-        <f>U30/U33</f>
+      <c r="U31" s="7">
+        <f>U29/U32</f>
         <v>11.860584039833132</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C32" s="3">
         <v>7457</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D32" s="3">
         <v>7451</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E32" s="3">
         <v>7441</v>
       </c>
-      <c r="F33" s="3">
-        <f>T33</f>
+      <c r="F32" s="3">
+        <f>T32</f>
         <v>7446</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G32" s="3">
         <v>7429</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H32" s="3">
         <v>7432</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I32" s="3">
         <v>7431</v>
       </c>
-      <c r="J33" s="3">
-        <f>U33</f>
+      <c r="J32" s="3">
+        <f>U32</f>
         <v>7431</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K32" s="3">
         <v>7433</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L32" s="3">
         <v>7435</v>
       </c>
+      <c r="M32" s="3">
+        <v>7434</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3">
+        <v>7673</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>7610</v>
+      </c>
+      <c r="R32" s="3">
+        <v>7547</v>
+      </c>
+      <c r="S32" s="3">
+        <v>7496</v>
+      </c>
+      <c r="T32" s="3">
+        <v>7446</v>
+      </c>
+      <c r="U32" s="3">
+        <v>7431</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3">
-        <v>7673</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>7610</v>
-      </c>
-      <c r="R33" s="3">
-        <v>7547</v>
-      </c>
-      <c r="S33" s="3">
-        <v>7496</v>
-      </c>
-      <c r="T33" s="3">
-        <v>7446</v>
-      </c>
-      <c r="U33" s="3">
-        <v>7431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="G34" s="8">
+        <f t="shared" ref="G34:H36" si="19">G16/D16-1</f>
+        <v>-5.9453895985953853E-2</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="19"/>
+        <v>0.21510136002052871</v>
+      </c>
+      <c r="I34" s="8">
+        <f>I16/F16-1</f>
+        <v>1.3469411974129208E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" ref="J34:N36" si="20">J16/G16-1</f>
+        <v>-0.1492114579980689</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="20"/>
+        <v>-0.19370677366559319</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="20"/>
+        <v>-5.040983606557381E-2</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="20"/>
+        <v>0.1590376030869336</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
       <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8">
+        <f t="shared" ref="Q34:T36" si="21">Q16/P16-1</f>
+        <v>2.984758358685613E-2</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" si="21"/>
+        <v>4.457606443173967E-2</v>
+      </c>
+      <c r="S34" s="8">
+        <f t="shared" si="21"/>
+        <v>2.3327799195205001E-2</v>
+      </c>
+      <c r="T34" s="8">
+        <f t="shared" si="21"/>
+        <v>-0.11044657097288679</v>
+      </c>
+      <c r="U34" s="8">
+        <f>U16/T16-1</f>
+        <v>1.1437580178983442E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:H37" si="19">G17/D17-1</f>
-        <v>-5.9453895985953853E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.13116202042506209</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="19"/>
-        <v>0.21510136002052871</v>
+        <v>0.15589363814430213</v>
       </c>
       <c r="I35" s="8">
-        <f>I17/F17-1</f>
-        <v>1.3469411974129208E-2</v>
+        <f t="shared" ref="I35:I36" si="22">I17/F17-1</f>
+        <v>0.13834655277608299</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:N37" si="20">J17/G17-1</f>
-        <v>-0.1492114579980689</v>
+        <f t="shared" si="20"/>
+        <v>0.25689327021619257</v>
       </c>
       <c r="K35" s="8">
         <f t="shared" si="20"/>
-        <v>-0.19370677366559319</v>
+        <v>0.16792404651918558</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="20"/>
-        <v>-5.040983606557381E-2</v>
+        <v>0.19284023404350359</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>6.2842166569598179E-2</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="20"/>
@@ -3651,29 +3716,29 @@
       <c r="O35" s="3"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8">
-        <f t="shared" ref="Q35:T37" si="21">Q17/P17-1</f>
-        <v>2.984758358685613E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.25429116338207258</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="21"/>
-        <v>4.457606443173967E-2</v>
+        <v>0.29396857577293467</v>
       </c>
       <c r="S35" s="8">
         <f t="shared" si="21"/>
-        <v>2.3327799195205001E-2</v>
+        <v>0.29401941987754343</v>
       </c>
       <c r="T35" s="8">
         <f t="shared" si="21"/>
-        <v>-0.11044657097288679</v>
+        <v>0.17268078191463943</v>
       </c>
       <c r="U35" s="8">
-        <f>U17/T17-1</f>
-        <v>1.1437580178983442E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U35:U36" si="23">U17/T17-1</f>
+        <v>0.2250638517552439</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3681,31 +3746,31 @@
       <c r="F36" s="3"/>
       <c r="G36" s="8">
         <f t="shared" si="19"/>
-        <v>0.13116202042506209</v>
+        <v>7.1473259142700085E-2</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="19"/>
-        <v>0.15589363814430213</v>
+        <v>0.17335452257979078</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" ref="I36:I37" si="22">I18/F18-1</f>
-        <v>0.13834655277608299</v>
+        <f t="shared" si="22"/>
+        <v>0.10089163359376396</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="20"/>
-        <v>0.25689327021619257</v>
+        <v>0.14526602615142337</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" si="20"/>
-        <v>0.16792404651918558</v>
+        <v>5.7481457594324326E-2</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="20"/>
-        <v>0.19284023404350359</v>
+        <v>0.1256749329108604</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="20"/>
-        <v>-1</v>
+        <v>8.2484898110525728E-2</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="20"/>
@@ -3715,479 +3780,440 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8">
         <f t="shared" si="21"/>
-        <v>0.25429116338207258</v>
+        <v>0.13645574247276371</v>
       </c>
       <c r="R36" s="8">
         <f t="shared" si="21"/>
-        <v>0.29396857577293467</v>
+        <v>0.17531727441177503</v>
       </c>
       <c r="S36" s="8">
         <f t="shared" si="21"/>
-        <v>0.29401941987754343</v>
+        <v>0.17956070629670173</v>
       </c>
       <c r="T36" s="8">
         <f t="shared" si="21"/>
-        <v>0.17268078191463943</v>
+        <v>6.8820295556564215E-2</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" ref="U36:U37" si="23">U18/T18-1</f>
-        <v>0.2250638517552439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="8">
-        <f t="shared" si="19"/>
-        <v>7.1473259142700085E-2</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="19"/>
-        <v>0.17335452257979078</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="22"/>
-        <v>0.10089163359376396</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="20"/>
-        <v>0.14526602615142337</v>
-      </c>
-      <c r="K37" s="8">
-        <f t="shared" si="20"/>
-        <v>5.7481457594324326E-2</v>
-      </c>
-      <c r="L37" s="8">
-        <f t="shared" si="20"/>
-        <v>0.1256749329108604</v>
-      </c>
-      <c r="M37" s="8">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="N37" s="8">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8">
-        <f t="shared" si="21"/>
-        <v>0.13645574247276371</v>
-      </c>
-      <c r="R37" s="8">
-        <f t="shared" si="21"/>
-        <v>0.17531727441177503</v>
-      </c>
-      <c r="S37" s="8">
-        <f t="shared" si="21"/>
-        <v>0.17956070629670173</v>
-      </c>
-      <c r="T37" s="8">
-        <f t="shared" si="21"/>
-        <v>6.8820295556564215E-2</v>
-      </c>
-      <c r="U37" s="8">
         <f t="shared" si="23"/>
         <v>0.1566996201307127</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="8">
-        <f t="shared" ref="C38:N38" si="24">(C17-C20)/C17</f>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" ref="C37:N37" si="24">(C16-C19)/C16</f>
         <v>0.72670097198399086</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D37" s="8">
         <f t="shared" si="24"/>
         <v>0.65550644790216139</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E37" s="8">
         <f t="shared" si="24"/>
         <v>0.74717731588401337</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F37" s="8">
         <f t="shared" si="24"/>
         <v>0.77030795704028954</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G37" s="8">
         <f t="shared" si="24"/>
         <v>0.77270679111683294</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H37" s="8">
         <f t="shared" si="24"/>
         <v>0.68512750118789922</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I37" s="8">
         <f t="shared" si="24"/>
         <v>0.74596018735363001</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J37" s="8">
         <f t="shared" si="24"/>
         <v>0.89120072633729286</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K37" s="8">
         <f t="shared" si="24"/>
         <v>0.78431115767417492</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L37" s="8">
         <f t="shared" si="24"/>
         <v>0.76225414637153954</v>
       </c>
-      <c r="M38" s="8" t="e">
+      <c r="M37" s="8">
+        <f t="shared" si="24"/>
+        <v>0.80174946145309745</v>
+      </c>
+      <c r="N37" s="8" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="8">
+        <f t="shared" ref="P37" si="25">(P16-P19)/P16</f>
+        <v>0.75369689264254036</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" ref="Q37:T37" si="26">(Q16-Q19)/Q16</f>
+        <v>0.76459781602269217</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" si="26"/>
+        <v>0.74366153586402906</v>
+      </c>
+      <c r="S37" s="8">
+        <f t="shared" si="26"/>
+        <v>0.73788703734257277</v>
+      </c>
+      <c r="T37" s="8">
+        <f t="shared" si="26"/>
+        <v>0.72481800336944935</v>
+      </c>
+      <c r="U37" s="8">
+        <f>(U16-U19)/U16</f>
+        <v>0.76422274713229277</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" ref="C38:N38" si="27">(C17-C20)/C17</f>
+        <v>0.67569296995433525</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.67435826662986476</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.67299900721779493</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.67144600366076879</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.68837538431506518</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.68293135866663568</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.68363928714993971</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.64577751892836344</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.66599089698487468</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.66407054462396797</v>
+      </c>
+      <c r="M38" s="8">
+        <f t="shared" si="27"/>
+        <v>0.65510438928160453</v>
+      </c>
       <c r="N38" s="8" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="8">
-        <f t="shared" ref="P38" si="25">(P17-P20)/P17</f>
-        <v>0.75369689264254036</v>
+        <f t="shared" ref="P38" si="28">(P17-P20)/P17</f>
+        <v>0.55437146585471941</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" ref="Q38:T38" si="26">(Q17-Q20)/Q17</f>
-        <v>0.76459781602269217</v>
+        <f t="shared" ref="Q38:T38" si="29">(Q17-Q20)/Q17</f>
+        <v>0.59904766985888447</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="26"/>
-        <v>0.74366153586402906</v>
+        <f t="shared" si="29"/>
+        <v>0.64940111736450412</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="26"/>
-        <v>0.73788703734257277</v>
+        <f t="shared" si="29"/>
+        <v>0.65280632159186858</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="26"/>
-        <v>0.72481800336944935</v>
+        <f t="shared" si="29"/>
+        <v>0.67354771220519505</v>
       </c>
       <c r="U38" s="8">
         <f>(U17-U20)/U17</f>
-        <v>0.76422274713229277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.67373259624394921</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" ref="C39:N39" si="27">(C18-C21)/C18</f>
-        <v>0.67569296995433525</v>
+        <f t="shared" ref="C39:N39" si="30">C21/C18</f>
+        <v>0.69171222217788597</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.67435826662986476</v>
+        <f t="shared" si="30"/>
+        <v>0.66845507801391546</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.67299900721779493</v>
+        <f t="shared" si="30"/>
+        <v>0.69487485101311086</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.67144600366076879</v>
+        <f t="shared" si="30"/>
+        <v>0.70109807969531401</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.68837538431506518</v>
+        <f t="shared" si="30"/>
+        <v>0.71155581506449384</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.68293135866663568</v>
+        <f t="shared" si="30"/>
+        <v>0.68360206385037081</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.68363928714993971</v>
+        <f t="shared" si="30"/>
+        <v>0.70084710142584628</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.64577751892836344</v>
+        <f t="shared" si="30"/>
+        <v>0.69589197707293715</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.66599089698487468</v>
+        <f t="shared" si="30"/>
+        <v>0.69354273080734929</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="27"/>
-        <v>0.66407054462396797</v>
-      </c>
-      <c r="M39" s="8" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="30"/>
+        <v>0.68693991268382348</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" si="30"/>
+        <v>0.6871663859789342</v>
       </c>
       <c r="N39" s="8" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="8">
-        <f t="shared" ref="P39" si="28">(P18-P21)/P18</f>
-        <v>0.55437146585471941</v>
+        <f t="shared" ref="P39" si="31">P21/P18</f>
+        <v>0.65901957200638894</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" ref="Q39:T39" si="29">(Q18-Q21)/Q18</f>
-        <v>0.59904766985888447</v>
+        <f t="shared" ref="Q39:T39" si="32">Q21/Q18</f>
+        <v>0.67781001992797962</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="29"/>
-        <v>0.64940111736450412</v>
+        <f t="shared" si="32"/>
+        <v>0.68925800771024703</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="29"/>
-        <v>0.65280632159186858</v>
+        <f t="shared" si="32"/>
+        <v>0.68401674484289099</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="29"/>
-        <v>0.67354771220519505</v>
+        <f t="shared" si="32"/>
+        <v>0.68920085883491022</v>
       </c>
       <c r="U39" s="8">
-        <f>(U18-U21)/U18</f>
-        <v>0.67373259624394921</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <f>U21/U18</f>
+        <v>0.69764443827971379</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" ref="C40:N40" si="30">C22/C19</f>
-        <v>0.69171222217788597</v>
+        <f t="shared" ref="C40:N40" si="33">C25/C18</f>
+        <v>0.42931247755476637</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.66845507801391546</v>
+        <f t="shared" si="33"/>
+        <v>0.3867328947617874</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.69487485101311086</v>
+        <f t="shared" si="33"/>
+        <v>0.42287681858599618</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.70109807969531401</v>
+        <f t="shared" si="33"/>
+        <v>0.4316503230169606</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.71155581506449384</v>
+        <f t="shared" si="33"/>
+        <v>0.47587451563246458</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.68360206385037081</v>
+        <f t="shared" si="33"/>
+        <v>0.43585940019348596</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.70084710142584628</v>
+        <f t="shared" si="33"/>
+        <v>0.44587603866921011</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.69589197707293715</v>
+        <f t="shared" si="33"/>
+        <v>0.43142737960974553</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.69354273080734929</v>
+        <f t="shared" si="33"/>
+        <v>0.46583822520393381</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="30"/>
-        <v>0.68693991268382348</v>
-      </c>
-      <c r="M40" s="8" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="33"/>
+        <v>0.45457548253676472</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="33"/>
+        <v>0.45671224274255701</v>
       </c>
       <c r="N40" s="8" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="8">
-        <f t="shared" ref="P40" si="31">P22/P19</f>
-        <v>0.65901957200638894</v>
+        <f t="shared" ref="P40" si="34">P25/P18</f>
+        <v>0.3413698020549415</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40:T40" si="32">Q22/Q19</f>
-        <v>0.67781001992797962</v>
+        <f t="shared" ref="Q40:T40" si="35">Q25/Q18</f>
+        <v>0.37030381428521486</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="32"/>
-        <v>0.68925800771024703</v>
+        <f t="shared" si="35"/>
+        <v>0.41594878872971303</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" si="32"/>
-        <v>0.68401674484289099</v>
+        <f t="shared" si="35"/>
+        <v>0.4205527815604983</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="32"/>
-        <v>0.68920085883491022</v>
+        <f t="shared" si="35"/>
+        <v>0.41772880636104098</v>
       </c>
       <c r="U40" s="8">
-        <f>U22/U19</f>
-        <v>0.69764443827971379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <f>U25/U18</f>
+        <v>0.44644299573273716</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:N41" si="33">C26/C19</f>
-        <v>0.42931247755476637</v>
+        <f t="shared" ref="C41:N41" si="36">C28/C27</f>
+        <v>0.18616725384758021</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.3867328947617874</v>
+        <f t="shared" si="36"/>
+        <v>0.19243817296818919</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.42287681858599618</v>
+        <f t="shared" si="36"/>
+        <v>0.19291668504388479</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.4316503230169606</v>
+        <f t="shared" si="36"/>
+        <v>0.18789177821814212</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.47587451563246458</v>
+        <f t="shared" si="36"/>
+        <v>0.18303767775985927</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.43585940019348596</v>
+        <f t="shared" si="36"/>
+        <v>0.17552589911784663</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.44587603866921011</v>
+        <f t="shared" si="36"/>
+        <v>0.17914468514984846</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.43142737960974553</v>
+        <f t="shared" si="36"/>
+        <v>0.19130275229357799</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.46583822520393381</v>
+        <f t="shared" si="36"/>
+        <v>0.18507383791998414</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="33"/>
-        <v>0.45457548253676472</v>
-      </c>
-      <c r="M41" s="8" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="36"/>
+        <v>0.17902264600715137</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="36"/>
+        <v>0.17697676642126398</v>
       </c>
       <c r="N41" s="8" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="8">
-        <f t="shared" ref="P41" si="34">P26/P19</f>
-        <v>0.3413698020549415</v>
+        <f t="shared" ref="P41" si="37">P28/P27</f>
+        <v>0.10181285478850027</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" ref="Q41:T41" si="35">Q26/Q19</f>
-        <v>0.37030381428521486</v>
+        <f t="shared" ref="Q41:T41" si="38">Q28/Q27</f>
+        <v>0.16507655177615205</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="35"/>
-        <v>0.41594878872971303</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="35"/>
-        <v>0.4205527815604983</v>
-      </c>
-      <c r="T41" s="8">
-        <f t="shared" si="35"/>
-        <v>0.41772880636104098</v>
-      </c>
-      <c r="U41" s="8">
-        <f>U26/U19</f>
-        <v>0.44644299573273716</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="8">
-        <f t="shared" ref="C42:N42" si="36">C29/C28</f>
-        <v>0.18616725384758021</v>
-      </c>
-      <c r="D42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.19243817296818919</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.19291668504388479</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.18789177821814212</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.18303767775985927</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.17552589911784663</v>
-      </c>
-      <c r="I42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.17914468514984846</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.19130275229357799</v>
-      </c>
-      <c r="K42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.18507383791998414</v>
-      </c>
-      <c r="L42" s="8">
-        <f t="shared" si="36"/>
-        <v>0.17902264600715137</v>
-      </c>
-      <c r="M42" s="8" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="8" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="8">
-        <f t="shared" ref="P42" si="37">P29/P28</f>
-        <v>0.10181285478850027</v>
-      </c>
-      <c r="Q42" s="8">
-        <f t="shared" ref="Q42:T42" si="38">Q29/Q28</f>
-        <v>0.16507655177615205</v>
-      </c>
-      <c r="R42" s="8">
         <f t="shared" si="38"/>
         <v>0.13826615285083402</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S41" s="8">
         <f t="shared" si="38"/>
         <v>0.13113383343685794</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T41" s="8">
         <f t="shared" si="38"/>
         <v>0.18978625253328257</v>
       </c>
-      <c r="U42" s="8">
-        <f>U29/U28</f>
+      <c r="U41" s="8">
+        <f>U28/U27</f>
         <v>0.18231326597827197</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4201,18 +4227,27 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="P43" s="3">
+        <v>11356</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>13576</v>
+      </c>
+      <c r="R43" s="3">
+        <v>14224</v>
+      </c>
+      <c r="S43" s="3">
+        <v>13931</v>
+      </c>
+      <c r="T43" s="3">
+        <v>34704</v>
+      </c>
+      <c r="U43" s="3">
+        <v>18315</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="3"/>
@@ -4228,14 +4263,26 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P44" s="3">
+        <v>122463</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>122951</v>
+      </c>
+      <c r="R44" s="3">
+        <v>116110</v>
+      </c>
+      <c r="S44" s="3">
+        <v>90826</v>
+      </c>
+      <c r="T44" s="3">
+        <v>76558</v>
+      </c>
+      <c r="U44" s="3">
+        <v>57228</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -4253,25 +4300,25 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3">
-        <v>11356</v>
+        <v>29524</v>
       </c>
       <c r="Q45" s="3">
-        <v>13576</v>
+        <v>32011</v>
       </c>
       <c r="R45" s="3">
-        <v>14224</v>
+        <v>38043</v>
       </c>
       <c r="S45" s="3">
-        <v>13931</v>
+        <v>44261</v>
       </c>
       <c r="T45" s="3">
-        <v>34704</v>
+        <v>48688</v>
       </c>
       <c r="U45" s="3">
-        <v>18315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56924</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -4289,25 +4336,25 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3">
-        <v>122463</v>
+        <v>2063</v>
       </c>
       <c r="Q46" s="3">
-        <v>122951</v>
+        <v>1895</v>
       </c>
       <c r="R46" s="3">
-        <v>116110</v>
+        <v>2636</v>
       </c>
       <c r="S46" s="3">
-        <v>90826</v>
+        <v>3742</v>
       </c>
       <c r="T46" s="3">
-        <v>76558</v>
+        <v>2500</v>
       </c>
       <c r="U46" s="3">
-        <v>57228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -4325,25 +4372,25 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3">
-        <v>29524</v>
+        <v>10146</v>
       </c>
       <c r="Q47" s="3">
-        <v>32011</v>
+        <v>11482</v>
       </c>
       <c r="R47" s="3">
-        <v>38043</v>
+        <v>13393</v>
       </c>
       <c r="S47" s="3">
-        <v>44261</v>
+        <v>16924</v>
       </c>
       <c r="T47" s="3">
-        <v>48688</v>
+        <v>21807</v>
       </c>
       <c r="U47" s="3">
-        <v>56924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>26021</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -4361,22 +4408,28 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3">
-        <v>2063</v>
+        <f t="shared" ref="P48:S48" si="39">+SUM(P43:P47)</f>
+        <v>175552</v>
       </c>
       <c r="Q48" s="3">
-        <v>1895</v>
+        <f t="shared" si="39"/>
+        <v>181915</v>
       </c>
       <c r="R48" s="3">
-        <v>2636</v>
+        <f t="shared" si="39"/>
+        <v>184406</v>
       </c>
       <c r="S48" s="3">
-        <v>3742</v>
+        <f t="shared" si="39"/>
+        <v>169684</v>
       </c>
       <c r="T48" s="3">
-        <v>2500</v>
+        <f>+SUM(T43:T47)</f>
+        <v>184257</v>
       </c>
       <c r="U48" s="3">
-        <v>1246</v>
+        <f>+SUM(U43:U47)</f>
+        <v>159734</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
@@ -4397,22 +4450,22 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3">
-        <v>10146</v>
+        <v>36477</v>
       </c>
       <c r="Q49" s="3">
-        <v>11482</v>
+        <v>44151</v>
       </c>
       <c r="R49" s="3">
-        <v>13393</v>
+        <v>59715</v>
       </c>
       <c r="S49" s="3">
-        <v>16924</v>
+        <v>74398</v>
       </c>
       <c r="T49" s="3">
-        <v>21807</v>
+        <v>95641</v>
       </c>
       <c r="U49" s="3">
-        <v>26021</v>
+        <v>135591</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
@@ -4433,28 +4486,22 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3">
-        <f t="shared" ref="P50:S50" si="39">+SUM(P45:P49)</f>
-        <v>175552</v>
+        <v>7379</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="39"/>
-        <v>181915</v>
+        <v>8753</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="39"/>
-        <v>184406</v>
+        <v>11088</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="39"/>
-        <v>169684</v>
+        <v>13148</v>
       </c>
       <c r="T50" s="3">
-        <f>+SUM(T45:T49)</f>
-        <v>184257</v>
+        <v>14346</v>
       </c>
       <c r="U50" s="3">
-        <f>+SUM(U45:U49)</f>
-        <v>159734</v>
+        <v>18961</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
@@ -4475,22 +4522,22 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3">
-        <v>36477</v>
+        <v>2649</v>
       </c>
       <c r="Q51" s="3">
-        <v>44151</v>
+        <v>2965</v>
       </c>
       <c r="R51" s="3">
-        <v>59715</v>
+        <v>5984</v>
       </c>
       <c r="S51" s="3">
-        <v>74398</v>
+        <v>6891</v>
       </c>
       <c r="T51" s="3">
-        <v>95641</v>
+        <v>9879</v>
       </c>
       <c r="U51" s="3">
-        <v>135591</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
@@ -4511,22 +4558,22 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3">
-        <v>7379</v>
+        <v>42026</v>
       </c>
       <c r="Q52" s="3">
-        <v>8753</v>
+        <v>43351</v>
       </c>
       <c r="R52" s="3">
-        <v>11088</v>
+        <v>49711</v>
       </c>
       <c r="S52" s="3">
-        <v>13148</v>
+        <v>67524</v>
       </c>
       <c r="T52" s="3">
-        <v>14346</v>
+        <v>67886</v>
       </c>
       <c r="U52" s="3">
-        <v>18961</v>
+        <v>119220</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
@@ -4547,27 +4594,27 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3">
-        <v>2649</v>
+        <v>7750</v>
       </c>
       <c r="Q53" s="3">
-        <v>2965</v>
+        <v>7038</v>
       </c>
       <c r="R53" s="3">
-        <v>5984</v>
+        <v>7800</v>
       </c>
       <c r="S53" s="3">
-        <v>6891</v>
+        <v>11298</v>
       </c>
       <c r="T53" s="3">
-        <v>9879</v>
+        <v>9366</v>
       </c>
       <c r="U53" s="3">
-        <v>14600</v>
+        <v>27597</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4583,27 +4630,27 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3">
-        <v>42026</v>
+        <v>14723</v>
       </c>
       <c r="Q54" s="3">
-        <v>43351</v>
+        <v>13138</v>
       </c>
       <c r="R54" s="3">
-        <v>49711</v>
+        <v>15075</v>
       </c>
       <c r="S54" s="3">
-        <v>67524</v>
+        <v>21897</v>
       </c>
       <c r="T54" s="3">
-        <v>67886</v>
+        <v>30601</v>
       </c>
       <c r="U54" s="3">
-        <v>119220</v>
+        <v>36460</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4619,64 +4666,73 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3">
-        <v>7750</v>
+        <f t="shared" ref="P55:T55" si="40">+SUM(P49:P54)</f>
+        <v>111004</v>
       </c>
       <c r="Q55" s="3">
-        <v>7038</v>
+        <f t="shared" si="40"/>
+        <v>119396</v>
       </c>
       <c r="R55" s="3">
-        <v>7800</v>
+        <f t="shared" si="40"/>
+        <v>149373</v>
       </c>
       <c r="S55" s="3">
-        <v>11298</v>
+        <f t="shared" si="40"/>
+        <v>195156</v>
       </c>
       <c r="T55" s="3">
-        <v>9366</v>
+        <f t="shared" si="40"/>
+        <v>227719</v>
       </c>
       <c r="U55" s="3">
-        <v>27597</v>
+        <f>+SUM(U49:U54)</f>
+        <v>352429</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3">
-        <v>14723</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>13138</v>
-      </c>
-      <c r="R56" s="3">
-        <v>15075</v>
-      </c>
-      <c r="S56" s="3">
-        <v>21897</v>
-      </c>
-      <c r="T56" s="3">
-        <v>30601</v>
-      </c>
-      <c r="U56" s="3">
-        <v>36460</v>
+      <c r="B56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6">
+        <f t="shared" ref="P56:U56" si="41">+P48+P55</f>
+        <v>286556</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" si="41"/>
+        <v>301311</v>
+      </c>
+      <c r="R56" s="6">
+        <f t="shared" si="41"/>
+        <v>333779</v>
+      </c>
+      <c r="S56" s="6">
+        <f t="shared" si="41"/>
+        <v>364840</v>
+      </c>
+      <c r="T56" s="6">
+        <f t="shared" si="41"/>
+        <v>411976</v>
+      </c>
+      <c r="U56" s="6">
+        <f t="shared" si="41"/>
+        <v>512163</v>
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4690,74 +4746,53 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="3">
-        <f t="shared" ref="P57:T57" si="40">+SUM(P51:P56)</f>
-        <v>111004</v>
-      </c>
-      <c r="Q57" s="3">
-        <f t="shared" si="40"/>
-        <v>119396</v>
-      </c>
-      <c r="R57" s="3">
-        <f t="shared" si="40"/>
-        <v>149373</v>
-      </c>
-      <c r="S57" s="3">
-        <f t="shared" si="40"/>
-        <v>195156</v>
-      </c>
-      <c r="T57" s="3">
-        <f t="shared" si="40"/>
-        <v>227719</v>
-      </c>
-      <c r="U57" s="3">
-        <f>+SUM(U51:U56)</f>
-        <v>352429</v>
-      </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3">
+        <v>9382</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>12530</v>
+      </c>
+      <c r="R58" s="3">
+        <v>15163</v>
+      </c>
+      <c r="S58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="T58" s="3">
+        <v>18095</v>
+      </c>
+      <c r="U58" s="3">
+        <v>21996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6">
-        <f t="shared" ref="P58:U58" si="41">+P50+P57</f>
-        <v>286556</v>
-      </c>
-      <c r="Q58" s="6">
-        <f t="shared" si="41"/>
-        <v>301311</v>
-      </c>
-      <c r="R58" s="6">
-        <f t="shared" si="41"/>
-        <v>333779</v>
-      </c>
-      <c r="S58" s="6">
-        <f t="shared" si="41"/>
-        <v>364840</v>
-      </c>
-      <c r="T58" s="6">
-        <f t="shared" si="41"/>
-        <v>411976</v>
-      </c>
-      <c r="U58" s="6">
-        <f t="shared" si="41"/>
-        <v>512163</v>
-      </c>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4771,12 +4806,24 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>6693</v>
+      </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -4796,22 +4843,22 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3">
-        <v>9382</v>
+        <v>5516</v>
       </c>
       <c r="Q60" s="3">
-        <v>12530</v>
+        <v>3749</v>
       </c>
       <c r="R60" s="3">
-        <v>15163</v>
+        <v>8072</v>
       </c>
       <c r="S60" s="3">
-        <v>19000</v>
+        <v>2749</v>
       </c>
       <c r="T60" s="3">
-        <v>18095</v>
+        <v>5247</v>
       </c>
       <c r="U60" s="3">
-        <v>21996</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
@@ -4832,22 +4879,22 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>6830</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>7874</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>10057</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>10661</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>11009</v>
       </c>
       <c r="U61" s="3">
-        <v>6693</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
@@ -4868,22 +4915,22 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3">
-        <v>5516</v>
+        <v>5665</v>
       </c>
       <c r="Q62" s="3">
-        <v>3749</v>
+        <v>2130</v>
       </c>
       <c r="R62" s="3">
-        <v>8072</v>
+        <v>2174</v>
       </c>
       <c r="S62" s="3">
-        <v>2749</v>
+        <v>4067</v>
       </c>
       <c r="T62" s="3">
-        <v>5247</v>
+        <v>4152</v>
       </c>
       <c r="U62" s="3">
-        <v>2249</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
@@ -4904,27 +4951,27 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3">
-        <v>6830</v>
+        <v>32676</v>
       </c>
       <c r="Q63" s="3">
-        <v>7874</v>
+        <v>36000</v>
       </c>
       <c r="R63" s="3">
-        <v>10057</v>
+        <v>41525</v>
       </c>
       <c r="S63" s="3">
-        <v>10661</v>
+        <v>45538</v>
       </c>
       <c r="T63" s="3">
-        <v>11009</v>
+        <v>50901</v>
       </c>
       <c r="U63" s="3">
-        <v>12564</v>
+        <v>57582</v>
       </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4940,27 +4987,27 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3">
-        <v>5665</v>
+        <v>9351</v>
       </c>
       <c r="Q64" s="3">
-        <v>2130</v>
+        <v>10027</v>
       </c>
       <c r="R64" s="3">
-        <v>2174</v>
+        <v>11666</v>
       </c>
       <c r="S64" s="3">
-        <v>4067</v>
+        <v>13067</v>
       </c>
       <c r="T64" s="3">
-        <v>4152</v>
+        <v>14745</v>
       </c>
       <c r="U64" s="3">
-        <v>5017</v>
+        <v>19185</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4976,27 +5023,33 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3">
-        <v>32676</v>
+        <f t="shared" ref="P65:T65" si="42">+SUM(P58:P64)</f>
+        <v>69420</v>
       </c>
       <c r="Q65" s="3">
-        <v>36000</v>
+        <f t="shared" si="42"/>
+        <v>72310</v>
       </c>
       <c r="R65" s="3">
-        <v>41525</v>
+        <f t="shared" si="42"/>
+        <v>88657</v>
       </c>
       <c r="S65" s="3">
-        <v>45538</v>
+        <f t="shared" si="42"/>
+        <v>95082</v>
       </c>
       <c r="T65" s="3">
-        <v>50901</v>
+        <f t="shared" si="42"/>
+        <v>104149</v>
       </c>
       <c r="U65" s="3">
-        <v>57582</v>
+        <f>+SUM(U58:U64)</f>
+        <v>125286</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5012,27 +5065,27 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3">
-        <v>9351</v>
+        <v>66662</v>
       </c>
       <c r="Q66" s="3">
-        <v>10027</v>
+        <v>59578</v>
       </c>
       <c r="R66" s="3">
-        <v>11666</v>
+        <v>50047</v>
       </c>
       <c r="S66" s="3">
-        <v>13067</v>
+        <v>47032</v>
       </c>
       <c r="T66" s="3">
-        <v>14745</v>
+        <v>41990</v>
       </c>
       <c r="U66" s="3">
-        <v>19185</v>
+        <v>42688</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5048,33 +5101,27 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3">
-        <f t="shared" ref="P67:T67" si="42">+SUM(P60:P66)</f>
-        <v>69420</v>
+        <v>29612</v>
       </c>
       <c r="Q67" s="3">
-        <f t="shared" si="42"/>
-        <v>72310</v>
+        <v>29432</v>
       </c>
       <c r="R67" s="3">
-        <f t="shared" si="42"/>
-        <v>88657</v>
+        <v>27190</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" si="42"/>
-        <v>95082</v>
+        <v>26069</v>
       </c>
       <c r="T67" s="3">
-        <f t="shared" si="42"/>
-        <v>104149</v>
+        <v>25560</v>
       </c>
       <c r="U67" s="3">
-        <f>+SUM(U60:U66)</f>
-        <v>125286</v>
+        <v>27931</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5090,27 +5137,27 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3">
-        <v>66662</v>
+        <v>4530</v>
       </c>
       <c r="Q68" s="3">
-        <v>59578</v>
+        <v>3180</v>
       </c>
       <c r="R68" s="3">
-        <v>50047</v>
+        <v>2616</v>
       </c>
       <c r="S68" s="3">
-        <v>47032</v>
+        <v>2870</v>
       </c>
       <c r="T68" s="3">
-        <v>41990</v>
+        <v>2912</v>
       </c>
       <c r="U68" s="3">
-        <v>42688</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5126,27 +5173,27 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3">
-        <v>29612</v>
+        <v>233</v>
       </c>
       <c r="Q69" s="3">
-        <v>29432</v>
+        <v>204</v>
       </c>
       <c r="R69" s="3">
-        <v>27190</v>
+        <v>198</v>
       </c>
       <c r="S69" s="3">
-        <v>26069</v>
+        <v>230</v>
       </c>
       <c r="T69" s="3">
-        <v>25560</v>
+        <v>433</v>
       </c>
       <c r="U69" s="3">
-        <v>27931</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5162,27 +5209,27 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3">
-        <v>4530</v>
+        <v>6188</v>
       </c>
       <c r="Q70" s="3">
-        <v>3180</v>
+        <v>7671</v>
       </c>
       <c r="R70" s="3">
-        <v>2616</v>
+        <v>9629</v>
       </c>
       <c r="S70" s="3">
-        <v>2870</v>
+        <v>11489</v>
       </c>
       <c r="T70" s="3">
-        <v>2912</v>
+        <v>12728</v>
       </c>
       <c r="U70" s="3">
-        <v>2602</v>
+        <v>15497</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -5198,27 +5245,27 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3">
-        <v>233</v>
+        <v>7581</v>
       </c>
       <c r="Q71" s="3">
-        <v>204</v>
+        <v>10632</v>
       </c>
       <c r="R71" s="3">
-        <v>198</v>
+        <v>13427</v>
       </c>
       <c r="S71" s="3">
-        <v>230</v>
+        <v>15526</v>
       </c>
       <c r="T71" s="3">
-        <v>433</v>
+        <v>17981</v>
       </c>
       <c r="U71" s="3">
-        <v>2618</v>
+        <v>27064</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5234,27 +5281,33 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3">
-        <v>6188</v>
+        <f t="shared" ref="P72:T72" si="43">+SUM(P66:P71)</f>
+        <v>114806</v>
       </c>
       <c r="Q72" s="3">
-        <v>7671</v>
+        <f t="shared" si="43"/>
+        <v>110697</v>
       </c>
       <c r="R72" s="3">
-        <v>9629</v>
+        <f t="shared" si="43"/>
+        <v>103107</v>
       </c>
       <c r="S72" s="3">
-        <v>11489</v>
+        <f t="shared" si="43"/>
+        <v>103216</v>
       </c>
       <c r="T72" s="3">
-        <v>12728</v>
+        <f t="shared" si="43"/>
+        <v>101604</v>
       </c>
       <c r="U72" s="3">
-        <v>15497</v>
+        <f>+SUM(U66:U71)</f>
+        <v>118400</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>46</v>
+      <c r="B73" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5269,23 +5322,29 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="3">
-        <v>7581</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>10632</v>
-      </c>
-      <c r="R73" s="3">
-        <v>13427</v>
-      </c>
-      <c r="S73" s="3">
-        <v>15526</v>
-      </c>
-      <c r="T73" s="3">
-        <v>17981</v>
-      </c>
-      <c r="U73" s="3">
-        <v>27064</v>
+      <c r="P73" s="6">
+        <f t="shared" ref="P73:T73" si="44">+P72+P65</f>
+        <v>184226</v>
+      </c>
+      <c r="Q73" s="6">
+        <f t="shared" si="44"/>
+        <v>183007</v>
+      </c>
+      <c r="R73" s="6">
+        <f t="shared" si="44"/>
+        <v>191764</v>
+      </c>
+      <c r="S73" s="6">
+        <f t="shared" si="44"/>
+        <v>198298</v>
+      </c>
+      <c r="T73" s="6">
+        <f t="shared" si="44"/>
+        <v>205753</v>
+      </c>
+      <c r="U73" s="6">
+        <f>+U72+U65</f>
+        <v>243686</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -5306,32 +5365,26 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3">
-        <f t="shared" ref="P74:T74" si="43">+SUM(P68:P73)</f>
-        <v>114806</v>
+        <v>102330</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="43"/>
-        <v>110697</v>
+        <v>118304</v>
       </c>
       <c r="R74" s="3">
-        <f t="shared" si="43"/>
-        <v>103107</v>
+        <v>141988</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="43"/>
-        <v>103216</v>
+        <v>166542</v>
       </c>
       <c r="T74" s="3">
-        <f t="shared" si="43"/>
-        <v>101604</v>
+        <v>206223</v>
       </c>
       <c r="U74" s="3">
-        <f>+SUM(U68:U73)</f>
-        <v>118400</v>
+        <v>268477</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="3"/>
@@ -5348,34 +5401,31 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="6">
-        <f t="shared" ref="P75:T75" si="44">+P74+P67</f>
-        <v>184226</v>
+        <f t="shared" ref="P75:S75" si="45">+P73+P74</f>
+        <v>286556</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" si="44"/>
-        <v>183007</v>
+        <f t="shared" si="45"/>
+        <v>301311</v>
       </c>
       <c r="R75" s="6">
-        <f t="shared" si="44"/>
-        <v>191764</v>
+        <f t="shared" si="45"/>
+        <v>333752</v>
       </c>
       <c r="S75" s="6">
-        <f t="shared" si="44"/>
-        <v>198298</v>
+        <f t="shared" si="45"/>
+        <v>364840</v>
       </c>
       <c r="T75" s="6">
-        <f t="shared" si="44"/>
-        <v>205753</v>
+        <f>+T73+T74</f>
+        <v>411976</v>
       </c>
       <c r="U75" s="6">
-        <f>+U74+U67</f>
-        <v>243686</v>
+        <f>+U73+U74</f>
+        <v>512163</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5389,28 +5439,19 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="3">
-        <v>102330</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>118304</v>
-      </c>
-      <c r="R76" s="3">
-        <v>141988</v>
-      </c>
-      <c r="S76" s="3">
-        <v>166542</v>
-      </c>
-      <c r="T76" s="3">
-        <v>206223</v>
-      </c>
-      <c r="U76" s="3">
-        <v>268477</v>
-      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>68</v>
+      <c r="A77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -5425,32 +5466,17 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="6">
-        <f t="shared" ref="P77:S77" si="45">+P75+P76</f>
-        <v>286556</v>
-      </c>
-      <c r="Q77" s="6">
-        <f t="shared" si="45"/>
-        <v>301311</v>
-      </c>
-      <c r="R77" s="6">
-        <f t="shared" si="45"/>
-        <v>333752</v>
-      </c>
-      <c r="S77" s="6">
-        <f t="shared" si="45"/>
-        <v>364840</v>
-      </c>
-      <c r="T77" s="6">
-        <f>+T75+T76</f>
-        <v>411976</v>
-      </c>
-      <c r="U77" s="6">
-        <f>+U75+U76</f>
-        <v>512163</v>
-      </c>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5464,19 +5490,34 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
+      <c r="P78" s="3">
+        <f>P29</f>
+        <v>39240</v>
+      </c>
+      <c r="Q78" s="3">
+        <f>Q29</f>
+        <v>44281</v>
+      </c>
+      <c r="R78" s="3">
+        <f>R29</f>
+        <v>61271</v>
+      </c>
+      <c r="S78" s="3">
+        <f>S29</f>
+        <v>72738</v>
+      </c>
+      <c r="T78" s="3">
+        <f>T29</f>
+        <v>72361</v>
+      </c>
+      <c r="U78" s="3">
+        <f>U29</f>
+        <v>88136</v>
+      </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>69</v>
+      <c r="B79" t="s">
+        <v>68</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5491,16 +5532,28 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
+      <c r="P79" s="3">
+        <v>11682</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>12796</v>
+      </c>
+      <c r="R79" s="3">
+        <v>11686</v>
+      </c>
+      <c r="S79" s="3">
+        <v>14460</v>
+      </c>
+      <c r="T79" s="3">
+        <v>13861</v>
+      </c>
+      <c r="U79" s="3">
+        <v>22287</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -5516,28 +5569,22 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3">
-        <f t="shared" ref="P80:T80" si="46">P30</f>
-        <v>39240</v>
+        <v>4652</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="46"/>
-        <v>44281</v>
+        <v>5289</v>
       </c>
       <c r="R80" s="3">
-        <f t="shared" si="46"/>
-        <v>61271</v>
+        <v>6118</v>
       </c>
       <c r="S80" s="3">
-        <f t="shared" si="46"/>
-        <v>72738</v>
+        <v>7502</v>
       </c>
       <c r="T80" s="3">
-        <f t="shared" si="46"/>
-        <v>72361</v>
+        <v>9611</v>
       </c>
       <c r="U80" s="3">
-        <f>U30</f>
-        <v>88136</v>
+        <v>10734</v>
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.25">
@@ -5558,22 +5605,22 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3">
-        <v>11682</v>
+        <v>-792</v>
       </c>
       <c r="Q81" s="3">
-        <v>12796</v>
+        <v>-219</v>
       </c>
       <c r="R81" s="3">
-        <v>11686</v>
+        <v>-1249</v>
       </c>
       <c r="S81" s="3">
-        <v>14460</v>
+        <v>-409</v>
       </c>
       <c r="T81" s="3">
-        <v>13861</v>
+        <v>196</v>
       </c>
       <c r="U81" s="3">
-        <v>22287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.25">
@@ -5594,26 +5641,26 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3">
-        <v>4652</v>
+        <v>-6463</v>
       </c>
       <c r="Q82" s="3">
-        <v>5289</v>
+        <v>11</v>
       </c>
       <c r="R82" s="3">
-        <v>6118</v>
+        <v>-150</v>
       </c>
       <c r="S82" s="3">
-        <v>7502</v>
+        <v>-5702</v>
       </c>
       <c r="T82" s="3">
-        <v>9611</v>
+        <v>-6059</v>
       </c>
       <c r="U82" s="3">
-        <v>10734</v>
+        <v>-4738</v>
       </c>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B83" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C83" s="3"/>
@@ -5629,28 +5676,16 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="3">
-        <v>-792</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-219</v>
-      </c>
-      <c r="R83" s="3">
-        <v>-1249</v>
-      </c>
-      <c r="S83" s="3">
-        <v>-409</v>
-      </c>
-      <c r="T83" s="3">
-        <v>196</v>
-      </c>
-      <c r="U83" s="3">
-        <v>305</v>
-      </c>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>73</v>
+      <c r="B84" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -5666,27 +5701,27 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3">
-        <v>-6463</v>
+        <v>-2812</v>
       </c>
       <c r="Q84" s="3">
-        <v>11</v>
+        <v>-2577</v>
       </c>
       <c r="R84" s="3">
-        <v>-150</v>
+        <v>-6481</v>
       </c>
       <c r="S84" s="3">
-        <v>-5702</v>
+        <v>-6834</v>
       </c>
       <c r="T84" s="3">
-        <v>-6059</v>
+        <v>-4087</v>
       </c>
       <c r="U84" s="3">
-        <v>-4738</v>
+        <v>-7191</v>
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
-        <v>74</v>
+      <c r="B85" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -5701,16 +5736,28 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
+      <c r="P85" s="3">
+        <v>597</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>168</v>
+      </c>
+      <c r="R85" s="3">
+        <v>-737</v>
+      </c>
+      <c r="S85" s="3">
+        <v>-1123</v>
+      </c>
+      <c r="T85" s="3">
+        <v>1242</v>
+      </c>
+      <c r="U85" s="3">
+        <v>1284</v>
+      </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -5726,27 +5773,27 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3">
-        <v>-2812</v>
+        <v>-1718</v>
       </c>
       <c r="Q86" s="3">
-        <v>-2577</v>
+        <v>-2330</v>
       </c>
       <c r="R86" s="3">
-        <v>-6481</v>
+        <v>-932</v>
       </c>
       <c r="S86" s="3">
-        <v>-6834</v>
+        <v>-709</v>
       </c>
       <c r="T86" s="3">
-        <v>-4087</v>
+        <v>-1991</v>
       </c>
       <c r="U86" s="3">
-        <v>-7191</v>
+        <v>-1648</v>
       </c>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -5762,22 +5809,22 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3">
-        <v>597</v>
+        <v>-1834</v>
       </c>
       <c r="Q87" s="3">
-        <v>168</v>
+        <v>-1037</v>
       </c>
       <c r="R87" s="3">
-        <v>-737</v>
+        <v>-3459</v>
       </c>
       <c r="S87" s="3">
-        <v>-1123</v>
+        <v>-2805</v>
       </c>
       <c r="T87" s="3">
-        <v>1242</v>
+        <v>-2833</v>
       </c>
       <c r="U87" s="3">
-        <v>1284</v>
+        <v>-6817</v>
       </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.25">
@@ -5798,22 +5845,22 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3">
-        <v>-1718</v>
+        <v>232</v>
       </c>
       <c r="Q88" s="3">
-        <v>-2330</v>
+        <v>3018</v>
       </c>
       <c r="R88" s="3">
-        <v>-932</v>
+        <v>2798</v>
       </c>
       <c r="S88" s="3">
-        <v>-709</v>
+        <v>2943</v>
       </c>
       <c r="T88" s="3">
-        <v>-1991</v>
+        <v>-2721</v>
       </c>
       <c r="U88" s="3">
-        <v>-1648</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.25">
@@ -5834,22 +5881,22 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3">
-        <v>-1834</v>
+        <v>4462</v>
       </c>
       <c r="Q89" s="3">
-        <v>-1037</v>
+        <v>2212</v>
       </c>
       <c r="R89" s="3">
-        <v>-3459</v>
+        <v>4633</v>
       </c>
       <c r="S89" s="3">
-        <v>-2805</v>
+        <v>5109</v>
       </c>
       <c r="T89" s="3">
-        <v>-2833</v>
+        <v>5535</v>
       </c>
       <c r="U89" s="3">
-        <v>-6817</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.25">
@@ -5870,22 +5917,22 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3">
-        <v>232</v>
+        <v>2929</v>
       </c>
       <c r="Q90" s="3">
-        <v>3018</v>
+        <v>-3631</v>
       </c>
       <c r="R90" s="3">
-        <v>2798</v>
+        <v>-2309</v>
       </c>
       <c r="S90" s="3">
-        <v>2943</v>
+        <v>696</v>
       </c>
       <c r="T90" s="3">
-        <v>-2721</v>
+        <v>-358</v>
       </c>
       <c r="U90" s="3">
-        <v>3545</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.25">
@@ -5906,22 +5953,22 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3">
-        <v>4462</v>
+        <v>1419</v>
       </c>
       <c r="Q91" s="3">
-        <v>2212</v>
+        <v>1346</v>
       </c>
       <c r="R91" s="3">
-        <v>4633</v>
+        <v>4149</v>
       </c>
       <c r="S91" s="3">
-        <v>5109</v>
+        <v>2344</v>
       </c>
       <c r="T91" s="3">
-        <v>5535</v>
+        <v>2272</v>
       </c>
       <c r="U91" s="3">
-        <v>5348</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.25">
@@ -5942,26 +5989,26 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3">
-        <v>2929</v>
+        <v>591</v>
       </c>
       <c r="Q92" s="3">
-        <v>-3631</v>
+        <v>1348</v>
       </c>
       <c r="R92" s="3">
-        <v>-2309</v>
+        <v>1402</v>
       </c>
       <c r="S92" s="3">
-        <v>696</v>
+        <v>825</v>
       </c>
       <c r="T92" s="3">
-        <v>-358</v>
+        <v>553</v>
       </c>
       <c r="U92" s="3">
-        <v>1687</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="3"/>
@@ -5978,27 +6025,33 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3">
-        <v>1419</v>
+        <f t="shared" ref="P93:T93" si="46">+SUM(P84:P92)</f>
+        <v>3866</v>
       </c>
       <c r="Q93" s="3">
-        <v>1346</v>
+        <f t="shared" si="46"/>
+        <v>-1483</v>
       </c>
       <c r="R93" s="3">
-        <v>4149</v>
+        <f t="shared" si="46"/>
+        <v>-936</v>
       </c>
       <c r="S93" s="3">
-        <v>2344</v>
+        <f t="shared" si="46"/>
+        <v>446</v>
       </c>
       <c r="T93" s="3">
-        <v>2272</v>
+        <f t="shared" si="46"/>
+        <v>-2388</v>
       </c>
       <c r="U93" s="3">
-        <v>4867</v>
+        <f>+SUM(U84:U92)</f>
+        <v>1824</v>
       </c>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B94" s="11" t="s">
-        <v>83</v>
+      <c r="B94" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -6013,28 +6066,34 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
-      <c r="P94" s="3">
-        <v>591</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>1348</v>
-      </c>
-      <c r="R94" s="3">
-        <v>1402</v>
-      </c>
-      <c r="S94" s="3">
-        <v>825</v>
-      </c>
-      <c r="T94" s="3">
-        <v>553</v>
-      </c>
-      <c r="U94" s="3">
-        <v>749</v>
+      <c r="P94" s="6">
+        <f t="shared" ref="P94:T94" si="47">+P78+SUM(P79:P82,P93)</f>
+        <v>52185</v>
+      </c>
+      <c r="Q94" s="6">
+        <f t="shared" si="47"/>
+        <v>60675</v>
+      </c>
+      <c r="R94" s="6">
+        <f t="shared" si="47"/>
+        <v>76740</v>
+      </c>
+      <c r="S94" s="6">
+        <f t="shared" si="47"/>
+        <v>89035</v>
+      </c>
+      <c r="T94" s="6">
+        <f t="shared" si="47"/>
+        <v>87582</v>
+      </c>
+      <c r="U94" s="6">
+        <f>+U78+SUM(U79:U82,U93)</f>
+        <v>118548</v>
       </c>
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -6050,33 +6109,27 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3">
-        <f t="shared" ref="P95:T95" si="47">+SUM(P86:P94)</f>
-        <v>3866</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="3">
-        <f t="shared" si="47"/>
-        <v>-1483</v>
+        <v>0</v>
       </c>
       <c r="R95" s="3">
-        <f t="shared" si="47"/>
-        <v>-936</v>
+        <v>0</v>
       </c>
       <c r="S95" s="3">
-        <f t="shared" si="47"/>
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="T95" s="3">
-        <f t="shared" si="47"/>
-        <v>-2388</v>
+        <v>0</v>
       </c>
       <c r="U95" s="3">
-        <f>+SUM(U86:U94)</f>
-        <v>1824</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>75</v>
+      <c r="B96" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -6091,29 +6144,23 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="6">
-        <f t="shared" ref="P96:T96" si="48">+P80+SUM(P81:P84,P95)</f>
-        <v>52185</v>
-      </c>
-      <c r="Q96" s="6">
-        <f t="shared" si="48"/>
-        <v>60675</v>
-      </c>
-      <c r="R96" s="6">
-        <f t="shared" si="48"/>
-        <v>76740</v>
-      </c>
-      <c r="S96" s="6">
-        <f t="shared" si="48"/>
-        <v>89035</v>
-      </c>
-      <c r="T96" s="6">
-        <f t="shared" si="48"/>
-        <v>87582</v>
-      </c>
-      <c r="U96" s="6">
-        <f>+U80+SUM(U81:U84,U95)</f>
-        <v>118548</v>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>24395</v>
       </c>
     </row>
     <row r="97" spans="2:21" x14ac:dyDescent="0.25">
@@ -6134,22 +6181,22 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="Q97" s="3">
-        <v>0</v>
+        <v>-5518</v>
       </c>
       <c r="R97" s="3">
-        <v>0</v>
+        <v>-3750</v>
       </c>
       <c r="S97" s="3">
-        <v>0</v>
+        <v>-9023</v>
       </c>
       <c r="T97" s="3">
-        <v>0</v>
+        <v>-2750</v>
       </c>
       <c r="U97" s="3">
-        <v>5250</v>
+        <v>-29070</v>
       </c>
     </row>
     <row r="98" spans="2:21" x14ac:dyDescent="0.25">
@@ -6170,22 +6217,22 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3">
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="Q98" s="3">
-        <v>0</v>
+        <v>1343</v>
       </c>
       <c r="R98" s="3">
-        <v>0</v>
+        <v>1693</v>
       </c>
       <c r="S98" s="3">
-        <v>0</v>
+        <v>1841</v>
       </c>
       <c r="T98" s="3">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="U98" s="3">
-        <v>24395</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="99" spans="2:21" x14ac:dyDescent="0.25">
@@ -6206,22 +6253,22 @@
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3">
-        <v>-4000</v>
+        <v>-19543</v>
       </c>
       <c r="Q99" s="3">
-        <v>-5518</v>
+        <v>-22968</v>
       </c>
       <c r="R99" s="3">
-        <v>-3750</v>
+        <v>-27385</v>
       </c>
       <c r="S99" s="3">
-        <v>-9023</v>
+        <v>-32696</v>
       </c>
       <c r="T99" s="3">
-        <v>-2750</v>
+        <v>-22245</v>
       </c>
       <c r="U99" s="3">
-        <v>-29070</v>
+        <v>-17254</v>
       </c>
     </row>
     <row r="100" spans="2:21" x14ac:dyDescent="0.25">
@@ -6242,27 +6289,27 @@
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3">
-        <v>1142</v>
+        <v>-13811</v>
       </c>
       <c r="Q100" s="3">
-        <v>1343</v>
+        <v>-15137</v>
       </c>
       <c r="R100" s="3">
-        <v>1693</v>
+        <v>-16521</v>
       </c>
       <c r="S100" s="3">
-        <v>1841</v>
+        <v>-18135</v>
       </c>
       <c r="T100" s="3">
-        <v>1866</v>
+        <v>-19800</v>
       </c>
       <c r="U100" s="3">
-        <v>2002</v>
+        <v>-21771</v>
       </c>
     </row>
     <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -6278,27 +6325,29 @@
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3">
-        <v>-19543</v>
+        <v>-675</v>
       </c>
       <c r="Q101" s="3">
-        <v>-22968</v>
+        <f>-334-3417</f>
+        <v>-3751</v>
       </c>
       <c r="R101" s="3">
-        <v>-27385</v>
+        <f>-769-1754</f>
+        <v>-2523</v>
       </c>
       <c r="S101" s="3">
-        <v>-32696</v>
+        <v>-863</v>
       </c>
       <c r="T101" s="3">
-        <v>-22245</v>
+        <v>-1006</v>
       </c>
       <c r="U101" s="3">
-        <v>-17254</v>
+        <v>-1309</v>
       </c>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
-        <v>90</v>
+      <c r="B102" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -6313,28 +6362,34 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="3">
-        <v>-13811</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-15137</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-16521</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-18135</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-21771</v>
+      <c r="P102" s="6">
+        <f t="shared" ref="P102:T102" si="48">+SUM(P95:P101)</f>
+        <v>-36887</v>
+      </c>
+      <c r="Q102" s="6">
+        <f t="shared" si="48"/>
+        <v>-46031</v>
+      </c>
+      <c r="R102" s="6">
+        <f t="shared" si="48"/>
+        <v>-48486</v>
+      </c>
+      <c r="S102" s="6">
+        <f t="shared" si="48"/>
+        <v>-58876</v>
+      </c>
+      <c r="T102" s="6">
+        <f t="shared" si="48"/>
+        <v>-43935</v>
+      </c>
+      <c r="U102" s="6">
+        <f>+SUM(U95:U101)</f>
+        <v>-37757</v>
       </c>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -6350,29 +6405,27 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3">
-        <v>-675</v>
+        <v>-13925</v>
       </c>
       <c r="Q103" s="3">
-        <f>-334-3417</f>
-        <v>-3751</v>
+        <v>-15441</v>
       </c>
       <c r="R103" s="3">
-        <f>-769-1754</f>
-        <v>-2523</v>
+        <v>-20622</v>
       </c>
       <c r="S103" s="3">
-        <v>-863</v>
+        <v>-23886</v>
       </c>
       <c r="T103" s="3">
-        <v>-1006</v>
+        <v>-28017</v>
       </c>
       <c r="U103" s="3">
-        <v>-1309</v>
+        <v>-44477</v>
       </c>
     </row>
     <row r="104" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B104" s="13" t="s">
-        <v>91</v>
+      <c r="B104" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -6387,34 +6440,28 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="6">
-        <f t="shared" ref="P104:T104" si="49">+SUM(P97:P103)</f>
-        <v>-36887</v>
-      </c>
-      <c r="Q104" s="6">
-        <f t="shared" si="49"/>
-        <v>-46031</v>
-      </c>
-      <c r="R104" s="6">
-        <f t="shared" si="49"/>
-        <v>-48486</v>
-      </c>
-      <c r="S104" s="6">
-        <f t="shared" si="49"/>
-        <v>-58876</v>
-      </c>
-      <c r="T104" s="6">
-        <f t="shared" si="49"/>
-        <v>-43935</v>
-      </c>
-      <c r="U104" s="6">
-        <f>+SUM(U97:U103)</f>
-        <v>-37757</v>
+      <c r="P104" s="3">
+        <v>-2388</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>-2521</v>
+      </c>
+      <c r="R104" s="3">
+        <v>-8909</v>
+      </c>
+      <c r="S104" s="3">
+        <v>-22038</v>
+      </c>
+      <c r="T104" s="3">
+        <v>-1670</v>
+      </c>
+      <c r="U104" s="3">
+        <v>-69132</v>
       </c>
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -6430,27 +6477,27 @@
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3">
-        <v>-13925</v>
+        <v>-57697</v>
       </c>
       <c r="Q105" s="3">
-        <v>-15441</v>
+        <v>-77190</v>
       </c>
       <c r="R105" s="3">
-        <v>-20622</v>
+        <v>-62924</v>
       </c>
       <c r="S105" s="3">
-        <v>-23886</v>
+        <v>-26456</v>
       </c>
       <c r="T105" s="3">
-        <v>-28017</v>
+        <v>-37651</v>
       </c>
       <c r="U105" s="3">
-        <v>-44477</v>
+        <v>-17732</v>
       </c>
     </row>
     <row r="106" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -6466,27 +6513,27 @@
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3">
-        <v>-2388</v>
+        <v>20043</v>
       </c>
       <c r="Q106" s="3">
-        <v>-2521</v>
+        <v>66449</v>
       </c>
       <c r="R106" s="3">
-        <v>-8909</v>
+        <v>51792</v>
       </c>
       <c r="S106" s="3">
-        <v>-22038</v>
+        <v>16451</v>
       </c>
       <c r="T106" s="3">
-        <v>-1670</v>
+        <v>33510</v>
       </c>
       <c r="U106" s="3">
-        <v>-69132</v>
+        <v>24775</v>
       </c>
     </row>
     <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -6502,22 +6549,22 @@
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3">
-        <v>-57697</v>
+        <v>38194</v>
       </c>
       <c r="Q107" s="3">
-        <v>-77190</v>
+        <v>17721</v>
       </c>
       <c r="R107" s="3">
-        <v>-62924</v>
+        <v>14008</v>
       </c>
       <c r="S107" s="3">
-        <v>-26456</v>
+        <v>28443</v>
       </c>
       <c r="T107" s="3">
-        <v>-37651</v>
+        <v>14354</v>
       </c>
       <c r="U107" s="3">
-        <v>-17732</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="108" spans="2:21" x14ac:dyDescent="0.25">
@@ -6538,27 +6585,27 @@
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3">
-        <v>20043</v>
+        <v>0</v>
       </c>
       <c r="Q108" s="3">
-        <v>66449</v>
+        <v>-1241</v>
       </c>
       <c r="R108" s="3">
-        <v>51792</v>
+        <v>-922</v>
       </c>
       <c r="S108" s="3">
-        <v>16451</v>
+        <v>-2825</v>
       </c>
       <c r="T108" s="3">
-        <v>33510</v>
+        <v>3116</v>
       </c>
       <c r="U108" s="3">
-        <v>24775</v>
+        <v>-1298</v>
       </c>
     </row>
     <row r="109" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B109" s="12" t="s">
-        <v>97</v>
+      <c r="B109" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -6573,28 +6620,34 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
-      <c r="P109" s="3">
-        <v>38194</v>
-      </c>
-      <c r="Q109" s="3">
-        <v>17721</v>
-      </c>
-      <c r="R109" s="3">
-        <v>14008</v>
-      </c>
-      <c r="S109" s="3">
-        <v>28443</v>
-      </c>
-      <c r="T109" s="3">
-        <v>14354</v>
-      </c>
-      <c r="U109" s="3">
-        <v>10894</v>
+      <c r="P109" s="6">
+        <f t="shared" ref="P109:T109" si="49">+SUM(P103:P108)</f>
+        <v>-15773</v>
+      </c>
+      <c r="Q109" s="6">
+        <f t="shared" si="49"/>
+        <v>-12223</v>
+      </c>
+      <c r="R109" s="6">
+        <f t="shared" si="49"/>
+        <v>-27577</v>
+      </c>
+      <c r="S109" s="6">
+        <f t="shared" si="49"/>
+        <v>-30311</v>
+      </c>
+      <c r="T109" s="6">
+        <f t="shared" si="49"/>
+        <v>-16358</v>
+      </c>
+      <c r="U109" s="6">
+        <f>+SUM(U103:U108)</f>
+        <v>-96970</v>
       </c>
     </row>
     <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -6609,28 +6662,22 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
-      <c r="P110" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="3">
-        <v>-1241</v>
-      </c>
-      <c r="R110" s="3">
-        <v>-922</v>
-      </c>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
       <c r="S110" s="3">
-        <v>-2825</v>
+        <v>-141</v>
       </c>
       <c r="T110" s="3">
-        <v>3116</v>
+        <v>-194</v>
       </c>
       <c r="U110" s="3">
-        <v>-1298</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="111" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>92</v>
+      <c r="B111" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -6645,29 +6692,29 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
-      <c r="P111" s="6">
-        <f t="shared" ref="P111:T111" si="50">+SUM(P105:P110)</f>
-        <v>-15773</v>
-      </c>
-      <c r="Q111" s="6">
+      <c r="P111" s="3">
+        <f t="shared" ref="P111:T111" si="50">+P110+P109+P102+P94</f>
+        <v>-475</v>
+      </c>
+      <c r="Q111" s="3">
         <f t="shared" si="50"/>
-        <v>-12223</v>
-      </c>
-      <c r="R111" s="6">
+        <v>2421</v>
+      </c>
+      <c r="R111" s="3">
         <f t="shared" si="50"/>
-        <v>-27577</v>
-      </c>
-      <c r="S111" s="6">
+        <v>677</v>
+      </c>
+      <c r="S111" s="3">
         <f t="shared" si="50"/>
-        <v>-30311</v>
-      </c>
-      <c r="T111" s="6">
+        <v>-293</v>
+      </c>
+      <c r="T111" s="3">
         <f t="shared" si="50"/>
-        <v>-16358</v>
-      </c>
-      <c r="U111" s="6">
-        <f>+SUM(U105:U110)</f>
-        <v>-96970</v>
+        <v>27095</v>
+      </c>
+      <c r="U111" s="3">
+        <f>+U110+U109+U102+U94</f>
+        <v>-16389</v>
       </c>
     </row>
     <row r="112" spans="2:21" x14ac:dyDescent="0.25">
@@ -6687,21 +6734,32 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
+      <c r="P112" s="3">
+        <f>P113-P111</f>
+        <v>5279</v>
+      </c>
+      <c r="Q112" s="3">
+        <f>Q113-Q111</f>
+        <v>4804</v>
+      </c>
+      <c r="R112" s="3">
+        <f>R113-R111</f>
+        <v>7225</v>
+      </c>
       <c r="S112" s="3">
-        <v>-141</v>
+        <f>S113-S111</f>
+        <v>7902</v>
       </c>
       <c r="T112" s="3">
-        <v>-194</v>
+        <f>T113-T111</f>
+        <v>7609</v>
       </c>
       <c r="U112" s="3">
-        <v>-210</v>
+        <v>34704</v>
       </c>
     </row>
     <row r="113" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C113" s="3"/>
@@ -6718,34 +6776,31 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3">
-        <f t="shared" ref="P113:T113" si="51">+P112+P111+P104+P96</f>
-        <v>-475</v>
+        <f>Q112</f>
+        <v>4804</v>
       </c>
       <c r="Q113" s="3">
-        <f t="shared" si="51"/>
-        <v>2421</v>
+        <f>R112</f>
+        <v>7225</v>
       </c>
       <c r="R113" s="3">
-        <f t="shared" si="51"/>
-        <v>677</v>
+        <f>S112</f>
+        <v>7902</v>
       </c>
       <c r="S113" s="3">
-        <f t="shared" si="51"/>
-        <v>-293</v>
+        <f>T112</f>
+        <v>7609</v>
       </c>
       <c r="T113" s="3">
-        <f t="shared" si="51"/>
-        <v>27095</v>
+        <f>U112</f>
+        <v>34704</v>
       </c>
       <c r="U113" s="3">
-        <f>+U112+U111+U104+U96</f>
-        <v>-16389</v>
+        <f>+U112+U111</f>
+        <v>18315</v>
       </c>
     </row>
     <row r="114" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6759,33 +6814,16 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="3">
-        <f>P115-P113</f>
-        <v>5279</v>
-      </c>
-      <c r="Q114" s="3">
-        <f>Q115-Q113</f>
-        <v>4804</v>
-      </c>
-      <c r="R114" s="3">
-        <f>R115-R113</f>
-        <v>7225</v>
-      </c>
-      <c r="S114" s="3">
-        <f>S115-S113</f>
-        <v>7902</v>
-      </c>
-      <c r="T114" s="3">
-        <f>T115-T113</f>
-        <v>7609</v>
-      </c>
-      <c r="U114" s="3">
-        <v>34704</v>
-      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
     </row>
     <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -6801,28 +6839,28 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3">
-        <f>Q114</f>
-        <v>4804</v>
+        <f>P25+P79+P93+P103</f>
+        <v>44582</v>
       </c>
       <c r="Q115" s="3">
-        <f>R114</f>
-        <v>7225</v>
+        <f>Q25+Q79+Q93+Q103</f>
+        <v>48831</v>
       </c>
       <c r="R115" s="3">
-        <f>S114</f>
-        <v>7902</v>
+        <f>R25+R79+R93+R103</f>
+        <v>60044</v>
       </c>
       <c r="S115" s="3">
-        <f>T114</f>
-        <v>7609</v>
+        <f>S25+S79+S93+S103</f>
+        <v>74403</v>
       </c>
       <c r="T115" s="3">
-        <f>U114</f>
-        <v>34704</v>
+        <f>T25+T79+T93+T103</f>
+        <v>71979</v>
       </c>
       <c r="U115" s="3">
-        <f>+U114+U113</f>
-        <v>18315</v>
+        <f>U25+U79+U93+U103</f>
+        <v>89067</v>
       </c>
     </row>
     <row r="116" spans="2:21" x14ac:dyDescent="0.25">
@@ -6847,9 +6885,6 @@
       <c r="U116" s="3"/>
     </row>
     <row r="117" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B117" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6863,30 +6898,12 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="3">
-        <f t="shared" ref="P117:T117" si="52">P26+P81+P95+P105</f>
-        <v>44582</v>
-      </c>
-      <c r="Q117" s="3">
-        <f t="shared" si="52"/>
-        <v>48831</v>
-      </c>
-      <c r="R117" s="3">
-        <f t="shared" si="52"/>
-        <v>60044</v>
-      </c>
-      <c r="S117" s="3">
-        <f t="shared" si="52"/>
-        <v>74403</v>
-      </c>
-      <c r="T117" s="3">
-        <f t="shared" si="52"/>
-        <v>71979</v>
-      </c>
-      <c r="U117" s="3">
-        <f>U26+U81+U95+U105</f>
-        <v>89067</v>
-      </c>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
@@ -17513,48 +17530,6 @@
       <c r="S623" s="3"/>
       <c r="T623" s="3"/>
       <c r="U623" s="3"/>
-    </row>
-    <row r="624" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C624" s="3"/>
-      <c r="D624" s="3"/>
-      <c r="E624" s="3"/>
-      <c r="F624" s="3"/>
-      <c r="G624" s="3"/>
-      <c r="H624" s="3"/>
-      <c r="I624" s="3"/>
-      <c r="J624" s="3"/>
-      <c r="K624" s="3"/>
-      <c r="L624" s="3"/>
-      <c r="M624" s="3"/>
-      <c r="N624" s="3"/>
-      <c r="O624" s="3"/>
-      <c r="P624" s="3"/>
-      <c r="Q624" s="3"/>
-      <c r="R624" s="3"/>
-      <c r="S624" s="3"/>
-      <c r="T624" s="3"/>
-      <c r="U624" s="3"/>
-    </row>
-    <row r="625" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C625" s="3"/>
-      <c r="D625" s="3"/>
-      <c r="E625" s="3"/>
-      <c r="F625" s="3"/>
-      <c r="G625" s="3"/>
-      <c r="H625" s="3"/>
-      <c r="I625" s="3"/>
-      <c r="J625" s="3"/>
-      <c r="K625" s="3"/>
-      <c r="L625" s="3"/>
-      <c r="M625" s="3"/>
-      <c r="N625" s="3"/>
-      <c r="O625" s="3"/>
-      <c r="P625" s="3"/>
-      <c r="Q625" s="3"/>
-      <c r="R625" s="3"/>
-      <c r="S625" s="3"/>
-      <c r="T625" s="3"/>
-      <c r="U625" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17589,7 +17564,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -17613,17 +17588,17 @@
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -17631,18 +17606,18 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="8">
-        <f>+Model!U30/AVERAGE(Model!T76:U76)</f>
+        <f>+Model!U29/AVERAGE(Model!T74:U74)</f>
         <v>0.37133347377290921</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -17653,12 +17628,12 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="N5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -17669,12 +17644,12 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="N6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -17685,12 +17660,12 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="N7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -17698,18 +17673,18 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8">
-        <f>1-((-Model!U102-Model!U101)/Model!U30)</f>
+        <f>1-((-Model!U100-Model!U99)/Model!U29)</f>
         <v>0.55721838976127802</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -17723,12 +17698,12 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="N9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -17739,12 +17714,12 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -17755,17 +17730,17 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="N11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -17776,12 +17751,12 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -17792,12 +17767,12 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -17808,12 +17783,12 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -17824,12 +17799,12 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -17840,17 +17815,17 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -17861,12 +17836,12 @@
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -17877,12 +17852,12 @@
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="N23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -17893,12 +17868,12 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="N24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -17909,12 +17884,12 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -17925,12 +17900,12 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="N26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -17941,12 +17916,12 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
       <c r="N27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -17957,12 +17932,12 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="N28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -17973,12 +17948,12 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="N29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -17989,12 +17964,12 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="N30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -18009,7 +17984,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -18020,7 +17995,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -18050,7 +18025,7 @@
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -18061,7 +18036,7 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -18072,12 +18047,12 @@
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="N40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="26"/>
@@ -18088,12 +18063,12 @@
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="N41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
@@ -18104,19 +18079,19 @@
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="N42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -18127,12 +18102,12 @@
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="N44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -18143,12 +18118,12 @@
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
       <c r="N45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
@@ -18159,12 +18134,12 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
       <c r="N46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -18175,7 +18150,7 @@
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="N47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5752108-A575-4192-B43F-57EE8597E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D6EFBD-9411-4329-9244-3AF2E4B4E246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{2536FD49-C228-45BB-BAA0-A0BFE1B4D82F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="212">
   <si>
     <t>Microsoft</t>
   </si>
@@ -670,7 +670,10 @@
     <t>Founded: 1975 Bill Gates</t>
   </si>
   <si>
-    <t>Q325</t>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Ballmer CEO from 2000 to 2014 </t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -917,6 +920,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1255,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A91CD0-4B5B-46BB-BF54-99530B47ED35}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>428.5</v>
+        <v>559.02</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1289,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>7432.5428650000003</v>
+        <v>7433.1663790000002</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>210</v>
@@ -1304,7 +1309,7 @@
       </c>
       <c r="H4" s="3">
         <f>H3*H2</f>
-        <v>3184844.6176525</v>
+        <v>4155288.66918858</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1315,8 +1320,8 @@
         <v>5</v>
       </c>
       <c r="H5" s="3">
-        <f>28828+50790</f>
-        <v>79618</v>
+        <f>30242+64323</f>
+        <v>94565</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>210</v>
@@ -1327,8 +1332,8 @@
         <v>6</v>
       </c>
       <c r="H6" s="3">
-        <f>39882+2999+0</f>
-        <v>42881</v>
+        <f>0+40152</f>
+        <v>40152</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>210</v>
@@ -1346,7 +1351,7 @@
       </c>
       <c r="H7" s="3">
         <f>H4-H5+H6</f>
-        <v>3148107.6176525</v>
+        <v>4100875.66918858</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1414,6 +1419,9 @@
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
+      <c r="G12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1476,10 +1484,10 @@
   <dimension ref="A1:AF623"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1621,9 @@
       <c r="U3" s="3">
         <v>97726</v>
       </c>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3">
+        <v>98435</v>
+      </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -1685,7 +1695,9 @@
       <c r="U4" s="3">
         <v>54875</v>
       </c>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3">
+        <v>87767</v>
+      </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -1757,7 +1769,9 @@
       <c r="U5" s="3">
         <v>23244</v>
       </c>
-      <c r="V5" s="3"/>
+      <c r="V5" s="3">
+        <v>23455</v>
+      </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -1829,7 +1843,9 @@
       <c r="U6" s="3">
         <v>21503</v>
       </c>
-      <c r="V6" s="3"/>
+      <c r="V6" s="3">
+        <v>17812</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1901,7 +1917,9 @@
       <c r="U7" s="3">
         <v>16372</v>
       </c>
-      <c r="V7" s="3"/>
+      <c r="V7" s="3">
+        <v>17314</v>
+      </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1973,7 +1991,9 @@
       <c r="U8" s="3">
         <v>12576</v>
       </c>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3">
+        <v>13878</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -2045,7 +2065,9 @@
       <c r="U9" s="3">
         <v>7594</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3">
+        <v>7827</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -2117,7 +2139,9 @@
       <c r="U10" s="3">
         <v>6481</v>
       </c>
-      <c r="V10" s="3"/>
+      <c r="V10" s="3">
+        <v>7760</v>
+      </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -2189,7 +2213,9 @@
       <c r="U11" s="3">
         <v>4706</v>
       </c>
-      <c r="V11" s="3"/>
+      <c r="V11" s="3">
+        <v>7404</v>
+      </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -2261,7 +2287,9 @@
       <c r="U12" s="3">
         <v>45</v>
       </c>
-      <c r="V12" s="3"/>
+      <c r="V12" s="3">
+        <v>72</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2333,7 +2361,9 @@
       <c r="U13" s="3">
         <v>77728</v>
       </c>
-      <c r="V13" s="3"/>
+      <c r="V13" s="3">
+        <v>120710</v>
+      </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -2405,7 +2435,9 @@
       <c r="U14" s="3">
         <v>105362</v>
       </c>
-      <c r="V14" s="3"/>
+      <c r="V14" s="3">
+        <v>106265</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2477,7 +2509,9 @@
       <c r="U15" s="3">
         <v>62032</v>
       </c>
-      <c r="V15" s="3"/>
+      <c r="V15" s="3">
+        <v>54469</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2548,7 +2582,9 @@
       <c r="U16" s="3">
         <v>64773</v>
       </c>
-      <c r="V16" s="3"/>
+      <c r="V16" s="3">
+        <v>63946</v>
+      </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -2560,7 +2596,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -2619,8 +2655,11 @@
       <c r="U17" s="3">
         <v>180349</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="3">
+        <v>217778</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2697,8 +2736,12 @@
         <f>+U16+U17</f>
         <v>245122</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="6">
+        <f>+V16+V17</f>
+        <v>281724</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -2757,8 +2800,11 @@
       <c r="U19" s="3">
         <v>15272</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="3">
+        <v>13501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -2817,8 +2863,11 @@
       <c r="U20" s="3">
         <v>58842</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="3">
+        <v>74330</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -2895,8 +2944,12 @@
         <f>+U18-SUM(U19:U20)</f>
         <v>171008</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="3">
+        <f>+V18-SUM(V19:V20)</f>
+        <v>193893</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -2955,8 +3008,11 @@
       <c r="U22" s="3">
         <v>29510</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="3">
+        <v>32488</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -3015,8 +3071,11 @@
       <c r="U23" s="3">
         <v>24456</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="3">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -3075,8 +3134,11 @@
       <c r="U24" s="3">
         <v>7609</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="3">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -3153,8 +3215,12 @@
         <f>+U21-SUM(U22:U24)</f>
         <v>109433</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="3">
+        <f>+V21-SUM(V22:V24)</f>
+        <v>128528</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -3213,8 +3279,11 @@
       <c r="U26" s="3">
         <v>-1646</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="3">
+        <v>-4901</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -3291,8 +3360,12 @@
         <f>U25+U26</f>
         <v>107787</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="3">
+        <f>V25+V26</f>
+        <v>123627</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -3351,8 +3424,11 @@
       <c r="U28" s="3">
         <v>19651</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="3">
+        <v>21795</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -3429,8 +3505,12 @@
         <f>+U27-U28</f>
         <v>88136</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="3">
+        <f>+V27-V28</f>
+        <v>101832</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3451,7 +3531,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -3528,8 +3608,12 @@
         <f>U29/U32</f>
         <v>11.860584039833132</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="7">
+        <f>V29/V32</f>
+        <v>13.699986546481904</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -3588,8 +3672,11 @@
       <c r="U32" s="3">
         <v>7431</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V32" s="3">
+        <v>7433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3610,7 +3697,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -3672,8 +3759,12 @@
         <f>U16/T16-1</f>
         <v>1.1437580178983442E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="8">
+        <f>V16/U16-1</f>
+        <v>-1.2767665539653916E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>35</v>
       </c>
@@ -3732,74 +3823,82 @@
         <v>0.17268078191463943</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" ref="U35:U36" si="23">U17/T17-1</f>
+        <f t="shared" ref="U35:V36" si="23">U17/T17-1</f>
         <v>0.2250638517552439</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="V35" s="8">
+        <f t="shared" si="23"/>
+        <v>0.20753649867756407</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="8">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="31">
         <f t="shared" si="19"/>
         <v>7.1473259142700085E-2</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="31">
         <f t="shared" si="19"/>
         <v>0.17335452257979078</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="31">
         <f t="shared" si="22"/>
         <v>0.10089163359376396</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="31">
         <f t="shared" si="20"/>
         <v>0.14526602615142337</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="31">
         <f t="shared" si="20"/>
         <v>5.7481457594324326E-2</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="31">
         <f t="shared" si="20"/>
         <v>0.1256749329108604</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="31">
         <f t="shared" si="20"/>
         <v>8.2484898110525728E-2</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="31">
         <f t="shared" si="20"/>
         <v>-1</v>
       </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8">
+      <c r="O36" s="6"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31">
         <f t="shared" si="21"/>
         <v>0.13645574247276371</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="31">
         <f t="shared" si="21"/>
         <v>0.17531727441177503</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="31">
         <f t="shared" si="21"/>
         <v>0.17956070629670173</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="31">
         <f t="shared" si="21"/>
         <v>6.8820295556564215E-2</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="31">
         <f t="shared" si="23"/>
         <v>0.1566996201307127</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V36" s="31">
+        <f t="shared" si="23"/>
+        <v>0.14932156232406713</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>103</v>
       </c>
@@ -3876,8 +3975,12 @@
         <f>(U16-U19)/U16</f>
         <v>0.76422274713229277</v>
       </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V37" s="8">
+        <f>(V16-V19)/V16</f>
+        <v>0.78886873299346327</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>104</v>
       </c>
@@ -3954,8 +4057,12 @@
         <f>(U17-U20)/U17</f>
         <v>0.67373259624394921</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V38" s="8">
+        <f>(V17-V20)/V17</f>
+        <v>0.65868912378660838</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -4032,8 +4139,12 @@
         <f>U21/U18</f>
         <v>0.69764443827971379</v>
       </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="8">
+        <f>V21/V18</f>
+        <v>0.68823742386165188</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -4110,8 +4221,12 @@
         <f>U25/U18</f>
         <v>0.44644299573273716</v>
       </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V40" s="8">
+        <f>V25/V18</f>
+        <v>0.45621956240859851</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -4188,8 +4303,12 @@
         <f>U28/U27</f>
         <v>0.18231326597827197</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="8">
+        <f>V28/V27</f>
+        <v>0.17629644009803683</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4210,7 +4329,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -4245,8 +4364,11 @@
       <c r="U43" s="3">
         <v>18315</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V43" s="3">
+        <v>30242</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -4281,8 +4403,11 @@
       <c r="U44" s="3">
         <v>57228</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V44" s="3">
+        <v>64323</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -4317,8 +4442,11 @@
       <c r="U45" s="3">
         <v>56924</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V45" s="3">
+        <v>69905</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -4353,8 +4481,11 @@
       <c r="U46" s="3">
         <v>1246</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V46" s="3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -4389,8 +4520,11 @@
       <c r="U47" s="3">
         <v>26021</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V47" s="3">
+        <v>25723</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -4431,8 +4565,12 @@
         <f>+SUM(U43:U47)</f>
         <v>159734</v>
       </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V48" s="3">
+        <f>+SUM(V43:V47)</f>
+        <v>191131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -4467,8 +4605,11 @@
       <c r="U49" s="3">
         <v>135591</v>
       </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V49" s="3">
+        <v>204966</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>47</v>
       </c>
@@ -4503,8 +4644,11 @@
       <c r="U50" s="3">
         <v>18961</v>
       </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V50" s="3">
+        <v>24823</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>48</v>
       </c>
@@ -4539,8 +4683,11 @@
       <c r="U51" s="3">
         <v>14600</v>
       </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V51" s="3">
+        <v>15405</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>49</v>
       </c>
@@ -4575,8 +4722,11 @@
       <c r="U52" s="3">
         <v>119220</v>
       </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V52" s="3">
+        <v>119509</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>50</v>
       </c>
@@ -4611,8 +4761,11 @@
       <c r="U53" s="3">
         <v>27597</v>
       </c>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V53" s="3">
+        <v>22604</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>44</v>
       </c>
@@ -4647,8 +4800,11 @@
       <c r="U54" s="3">
         <v>36460</v>
       </c>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V54" s="3">
+        <v>40565</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>51</v>
       </c>
@@ -4689,8 +4845,12 @@
         <f>+SUM(U49:U54)</f>
         <v>352429</v>
       </c>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V55" s="3">
+        <f>+SUM(V49:V54)</f>
+        <v>427872</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
@@ -4708,7 +4868,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6">
-        <f t="shared" ref="P56:U56" si="41">+P48+P55</f>
+        <f t="shared" ref="P56:V56" si="41">+P48+P55</f>
         <v>286556</v>
       </c>
       <c r="Q56" s="6">
@@ -4731,8 +4891,12 @@
         <f t="shared" si="41"/>
         <v>512163</v>
       </c>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V56" s="6">
+        <f t="shared" si="41"/>
+        <v>619003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4753,7 +4917,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -4788,8 +4952,11 @@
       <c r="U58" s="3">
         <v>21996</v>
       </c>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V58" s="3">
+        <v>27724</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>54</v>
       </c>
@@ -4824,8 +4991,11 @@
       <c r="U59" s="3">
         <v>6693</v>
       </c>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>55</v>
       </c>
@@ -4860,8 +5030,11 @@
       <c r="U60" s="3">
         <v>2249</v>
       </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V60" s="3">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5069,11 @@
       <c r="U61" s="3">
         <v>12564</v>
       </c>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V61" s="3">
+        <v>13709</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>57</v>
       </c>
@@ -4932,8 +5108,11 @@
       <c r="U62" s="3">
         <v>5017</v>
       </c>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V62" s="3">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>58</v>
       </c>
@@ -4968,8 +5147,11 @@
       <c r="U63" s="3">
         <v>57582</v>
       </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V63" s="3">
+        <v>64555</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>44</v>
       </c>
@@ -5004,8 +5186,11 @@
       <c r="U64" s="3">
         <v>19185</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64" s="3">
+        <v>25020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>59</v>
       </c>
@@ -5046,8 +5231,12 @@
         <f>+SUM(U58:U64)</f>
         <v>125286</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65" s="3">
+        <f>+SUM(V58:V64)</f>
+        <v>141218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>6</v>
       </c>
@@ -5082,8 +5271,11 @@
       <c r="U66" s="3">
         <v>42688</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66" s="3">
+        <v>40152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>60</v>
       </c>
@@ -5118,8 +5310,11 @@
       <c r="U67" s="3">
         <v>27931</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67" s="3">
+        <v>25986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>58</v>
       </c>
@@ -5154,8 +5349,11 @@
       <c r="U68" s="3">
         <v>2602</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68" s="3">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>61</v>
       </c>
@@ -5190,8 +5388,11 @@
       <c r="U69" s="3">
         <v>2618</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69" s="3">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>62</v>
       </c>
@@ -5226,8 +5427,11 @@
       <c r="U70" s="3">
         <v>15497</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70" s="3">
+        <v>17437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>44</v>
       </c>
@@ -5262,8 +5466,11 @@
       <c r="U71" s="3">
         <v>27064</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71" s="3">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>63</v>
       </c>
@@ -5304,8 +5511,12 @@
         <f>+SUM(U66:U71)</f>
         <v>118400</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72" s="3">
+        <f>+SUM(V66:V71)</f>
+        <v>134306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5346,8 +5557,12 @@
         <f>+U72+U65</f>
         <v>243686</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73" s="6">
+        <f>+V72+V65</f>
+        <v>275524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -5382,8 +5597,11 @@
       <c r="U74" s="3">
         <v>268477</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74" s="3">
+        <v>343479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>66</v>
       </c>
@@ -5424,8 +5642,12 @@
         <f>+U73+U74</f>
         <v>512163</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75" s="6">
+        <f>+V73+V74</f>
+        <v>619003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5446,7 +5668,7 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>39</v>
       </c>
@@ -5473,7 +5695,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>31</v>
       </c>
@@ -5491,31 +5713,35 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3">
-        <f>P29</f>
+        <f t="shared" ref="P78:V78" si="46">P29</f>
         <v>39240</v>
       </c>
       <c r="Q78" s="3">
-        <f>Q29</f>
+        <f t="shared" si="46"/>
         <v>44281</v>
       </c>
       <c r="R78" s="3">
-        <f>R29</f>
+        <f t="shared" si="46"/>
         <v>61271</v>
       </c>
       <c r="S78" s="3">
-        <f>S29</f>
+        <f t="shared" si="46"/>
         <v>72738</v>
       </c>
       <c r="T78" s="3">
-        <f>T29</f>
+        <f t="shared" si="46"/>
         <v>72361</v>
       </c>
       <c r="U78" s="3">
-        <f>U29</f>
+        <f t="shared" si="46"/>
         <v>88136</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78" s="3">
+        <f t="shared" si="46"/>
+        <v>101832</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>68</v>
       </c>
@@ -5550,8 +5776,11 @@
       <c r="U79" s="3">
         <v>22287</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79" s="3">
+        <v>34153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>69</v>
       </c>
@@ -5586,8 +5815,11 @@
       <c r="U80" s="3">
         <v>10734</v>
       </c>
-    </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V80" s="3">
+        <v>11974</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>70</v>
       </c>
@@ -5622,8 +5854,11 @@
       <c r="U81" s="3">
         <v>305</v>
       </c>
-    </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V81" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>71</v>
       </c>
@@ -5658,8 +5893,11 @@
       <c r="U82" s="3">
         <v>-4738</v>
       </c>
-    </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V82" s="3">
+        <v>-7056</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>72</v>
       </c>
@@ -5683,7 +5921,7 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>74</v>
       </c>
@@ -5718,8 +5956,11 @@
       <c r="U84" s="3">
         <v>-7191</v>
       </c>
-    </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V84" s="3">
+        <v>-10581</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>43</v>
       </c>
@@ -5754,8 +5995,11 @@
       <c r="U85" s="3">
         <v>1284</v>
       </c>
-    </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V85" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>75</v>
       </c>
@@ -5790,8 +6034,11 @@
       <c r="U86" s="3">
         <v>-1648</v>
       </c>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V86" s="3">
+        <v>-3044</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
         <v>76</v>
       </c>
@@ -5826,8 +6073,11 @@
       <c r="U87" s="3">
         <v>-6817</v>
       </c>
-    </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V87" s="3">
+        <v>-2950</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
         <v>77</v>
       </c>
@@ -5862,8 +6112,11 @@
       <c r="U88" s="3">
         <v>3545</v>
       </c>
-    </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V88" s="3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>78</v>
       </c>
@@ -5898,8 +6151,11 @@
       <c r="U89" s="3">
         <v>5348</v>
       </c>
-    </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V89" s="3">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>79</v>
       </c>
@@ -5934,8 +6190,11 @@
       <c r="U90" s="3">
         <v>1687</v>
       </c>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="3">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>80</v>
       </c>
@@ -5970,8 +6229,11 @@
       <c r="U91" s="3">
         <v>4867</v>
       </c>
-    </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V91" s="3">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>81</v>
       </c>
@@ -6006,8 +6268,11 @@
       <c r="U92" s="3">
         <v>749</v>
       </c>
-    </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V92" s="3">
+        <v>-975</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>82</v>
       </c>
@@ -6025,31 +6290,35 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3">
-        <f t="shared" ref="P93:T93" si="46">+SUM(P84:P92)</f>
+        <f t="shared" ref="P93:T93" si="47">+SUM(P84:P92)</f>
         <v>3866</v>
       </c>
       <c r="Q93" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-1483</v>
       </c>
       <c r="R93" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-936</v>
       </c>
       <c r="S93" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>446</v>
       </c>
       <c r="T93" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2388</v>
       </c>
       <c r="U93" s="3">
         <f>+SUM(U84:U92)</f>
         <v>1824</v>
       </c>
-    </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="3">
+        <f>+SUM(V84:V92)</f>
+        <v>-5350</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>73</v>
       </c>
@@ -6067,31 +6336,35 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="6">
-        <f t="shared" ref="P94:T94" si="47">+P78+SUM(P79:P82,P93)</f>
+        <f t="shared" ref="P94:T94" si="48">+P78+SUM(P79:P82,P93)</f>
         <v>52185</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>60675</v>
       </c>
       <c r="R94" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>76740</v>
       </c>
       <c r="S94" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>89035</v>
       </c>
       <c r="T94" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>87582</v>
       </c>
       <c r="U94" s="6">
         <f>+U78+SUM(U79:U82,U93)</f>
         <v>118548</v>
       </c>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V94" s="6">
+        <f>+V78+SUM(V79:V82,V93)</f>
+        <v>136162</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>83</v>
       </c>
@@ -6126,8 +6399,11 @@
       <c r="U95" s="3">
         <v>5250</v>
       </c>
-    </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V95" s="3">
+        <v>-5746</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>84</v>
       </c>
@@ -6162,8 +6438,11 @@
       <c r="U96" s="3">
         <v>24395</v>
       </c>
-    </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>85</v>
       </c>
@@ -6198,8 +6477,11 @@
       <c r="U97" s="3">
         <v>-29070</v>
       </c>
-    </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V97" s="3">
+        <v>-3216</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>86</v>
       </c>
@@ -6234,8 +6516,11 @@
       <c r="U98" s="3">
         <v>2002</v>
       </c>
-    </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V98" s="3">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>87</v>
       </c>
@@ -6270,8 +6555,11 @@
       <c r="U99" s="3">
         <v>-17254</v>
       </c>
-    </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V99" s="3">
+        <v>-18420</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>88</v>
       </c>
@@ -6306,8 +6594,11 @@
       <c r="U100" s="3">
         <v>-21771</v>
       </c>
-    </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V100" s="3">
+        <v>-24082</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>44</v>
       </c>
@@ -6344,8 +6635,11 @@
       <c r="U101" s="3">
         <v>-1309</v>
       </c>
-    </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V101" s="3">
+        <v>-2291</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
         <v>89</v>
       </c>
@@ -6363,31 +6657,35 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="6">
-        <f t="shared" ref="P102:T102" si="48">+SUM(P95:P101)</f>
+        <f t="shared" ref="P102:T102" si="49">+SUM(P95:P101)</f>
         <v>-36887</v>
       </c>
       <c r="Q102" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-46031</v>
       </c>
       <c r="R102" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-48486</v>
       </c>
       <c r="S102" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-58876</v>
       </c>
       <c r="T102" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-43935</v>
       </c>
       <c r="U102" s="6">
         <f>+SUM(U95:U101)</f>
         <v>-37757</v>
       </c>
-    </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V102" s="6">
+        <f>+SUM(V95:V101)</f>
+        <v>-51699</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>91</v>
       </c>
@@ -6422,8 +6720,11 @@
       <c r="U103" s="3">
         <v>-44477</v>
       </c>
-    </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V103" s="3">
+        <v>-64551</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>93</v>
       </c>
@@ -6458,8 +6759,11 @@
       <c r="U104" s="3">
         <v>-69132</v>
       </c>
-    </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V104" s="3">
+        <v>-5978</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>92</v>
       </c>
@@ -6494,8 +6798,11 @@
       <c r="U105" s="3">
         <v>-17732</v>
       </c>
-    </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V105" s="3">
+        <v>-29775</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>94</v>
       </c>
@@ -6530,8 +6837,11 @@
       <c r="U106" s="3">
         <v>24775</v>
       </c>
-    </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V106" s="3">
+        <v>16079</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>95</v>
       </c>
@@ -6566,8 +6876,11 @@
       <c r="U107" s="3">
         <v>10894</v>
       </c>
-    </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V107" s="3">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>96</v>
       </c>
@@ -6602,8 +6915,11 @@
       <c r="U108" s="3">
         <v>-1298</v>
       </c>
-    </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V108" s="3">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>90</v>
       </c>
@@ -6621,31 +6937,35 @@
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="6">
-        <f t="shared" ref="P109:T109" si="49">+SUM(P103:P108)</f>
+        <f t="shared" ref="P109:T109" si="50">+SUM(P103:P108)</f>
         <v>-15773</v>
       </c>
       <c r="Q109" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-12223</v>
       </c>
       <c r="R109" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-27577</v>
       </c>
       <c r="S109" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-30311</v>
       </c>
       <c r="T109" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-16358</v>
       </c>
       <c r="U109" s="6">
         <f>+SUM(U103:U108)</f>
         <v>-96970</v>
       </c>
-    </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V109" s="6">
+        <f>+SUM(V103:V108)</f>
+        <v>-72599</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>97</v>
       </c>
@@ -6674,8 +6994,11 @@
       <c r="U110" s="3">
         <v>-210</v>
       </c>
-    </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V110" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
         <v>98</v>
       </c>
@@ -6692,32 +7015,36 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
-      <c r="P111" s="3">
-        <f t="shared" ref="P111:T111" si="50">+P110+P109+P102+P94</f>
+      <c r="P111" s="6">
+        <f t="shared" ref="P111:T111" si="51">+P110+P109+P102+P94</f>
         <v>-475</v>
       </c>
-      <c r="Q111" s="3">
-        <f t="shared" si="50"/>
+      <c r="Q111" s="6">
+        <f t="shared" si="51"/>
         <v>2421</v>
       </c>
-      <c r="R111" s="3">
-        <f t="shared" si="50"/>
+      <c r="R111" s="6">
+        <f t="shared" si="51"/>
         <v>677</v>
       </c>
-      <c r="S111" s="3">
-        <f t="shared" si="50"/>
+      <c r="S111" s="6">
+        <f t="shared" si="51"/>
         <v>-293</v>
       </c>
-      <c r="T111" s="3">
-        <f t="shared" si="50"/>
+      <c r="T111" s="6">
+        <f t="shared" si="51"/>
         <v>27095</v>
       </c>
-      <c r="U111" s="3">
+      <c r="U111" s="6">
         <f>+U110+U109+U102+U94</f>
         <v>-16389</v>
       </c>
-    </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V111" s="6">
+        <f>+V110+V109+V102+V94</f>
+        <v>11927</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>99</v>
       </c>
@@ -6757,8 +7084,11 @@
       <c r="U112" s="3">
         <v>34704</v>
       </c>
-    </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V112" s="3">
+        <v>11927</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>100</v>
       </c>
@@ -6799,8 +7129,11 @@
         <f>+U112+U111</f>
         <v>18315</v>
       </c>
-    </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V113" s="32">
+        <v>18315</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6821,49 +7154,53 @@
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B115" s="12" t="s">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B115" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3">
-        <f>P25+P79+P93+P103</f>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6">
+        <f t="shared" ref="P115:V115" si="52">P25+P79+P93+P103</f>
         <v>44582</v>
       </c>
-      <c r="Q115" s="3">
-        <f>Q25+Q79+Q93+Q103</f>
+      <c r="Q115" s="6">
+        <f t="shared" si="52"/>
         <v>48831</v>
       </c>
-      <c r="R115" s="3">
-        <f>R25+R79+R93+R103</f>
+      <c r="R115" s="6">
+        <f t="shared" si="52"/>
         <v>60044</v>
       </c>
-      <c r="S115" s="3">
-        <f>S25+S79+S93+S103</f>
+      <c r="S115" s="6">
+        <f t="shared" si="52"/>
         <v>74403</v>
       </c>
-      <c r="T115" s="3">
-        <f>T25+T79+T93+T103</f>
+      <c r="T115" s="6">
+        <f t="shared" si="52"/>
         <v>71979</v>
       </c>
-      <c r="U115" s="3">
-        <f>U25+U79+U93+U103</f>
+      <c r="U115" s="6">
+        <f t="shared" si="52"/>
         <v>89067</v>
       </c>
-    </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V115" s="6">
+        <f t="shared" si="52"/>
+        <v>92780</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6884,7 +7221,7 @@
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6905,7 +7242,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6926,7 +7263,7 @@
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6947,7 +7284,7 @@
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6968,7 +7305,7 @@
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -6989,7 +7326,7 @@
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
     </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -7010,7 +7347,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -7031,7 +7368,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -7052,7 +7389,7 @@
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
     </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -7073,7 +7410,7 @@
       <c r="T125" s="3"/>
       <c r="U125" s="3"/>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -7094,7 +7431,7 @@
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -7115,7 +7452,7 @@
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA1AB7-F607-495B-82B4-C29AE4F4705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D62B3-0883-42A8-BFB4-3C61EA60D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{2536FD49-C228-45BB-BAA0-A0BFE1B4D82F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{2536FD49-C228-45BB-BAA0-A0BFE1B4D82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -673,9 +673,6 @@
     <t>Office 365</t>
   </si>
   <si>
-    <t>Q126</t>
-  </si>
-  <si>
     <t>FQ126</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>Cloud Growth</t>
+  </si>
+  <si>
+    <t>Q226</t>
   </si>
 </sst>
 </file>
@@ -701,13 +701,19 @@
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0;[Red]#,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -902,61 +908,64 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1295,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A91CD0-4B5B-46BB-BF54-99530B47ED35}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1323,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="3">
-        <v>516.99</v>
+        <v>432.32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1331,10 +1340,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>7432.3776550000002</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>211</v>
+        <v>7425.6290760000002</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1346,7 +1355,7 @@
       </c>
       <c r="H4" s="4">
         <f>H3*H2</f>
-        <v>3842464.9238584503</v>
+        <v>3210247.9621363198</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1357,11 +1366,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f>28849+73163</f>
-        <v>102012</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>211</v>
+        <f>24296+65166</f>
+        <v>89462</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1369,11 +1378,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <f>35376+7832</f>
-        <v>43208</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>211</v>
+        <f>4837+35425</f>
+        <v>40262</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1388,7 +1397,7 @@
       </c>
       <c r="H7" s="4">
         <f>H4-H5+H6</f>
-        <v>3783660.9238584503</v>
+        <v>3161047.9621363198</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1520,11 +1529,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247F6C03-6F29-43A9-8F69-00F6AF9954D6}">
   <dimension ref="A1:AJ624"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1577,16 +1586,16 @@
         <v>116</v>
       </c>
       <c r="O2" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="R2" s="33" t="s">
         <v>214</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>215</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5" t="s">
@@ -1658,7 +1667,9 @@
       <c r="O3" s="4">
         <v>28872</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4">
+        <v>30865</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1741,7 +1752,9 @@
       <c r="O4" s="4">
         <v>23966</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4">
+        <v>24524</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -1824,7 +1837,9 @@
       <c r="O5" s="4">
         <v>5508</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4">
+        <v>5958</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1907,7 +1922,9 @@
       <c r="O6" s="4">
         <v>4714</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4">
+        <v>5082</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1990,7 +2007,9 @@
       <c r="O7" s="4">
         <v>4551</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4">
+        <v>4479</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -2073,7 +2092,9 @@
       <c r="O8" s="4">
         <v>3697</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>3812</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -2156,7 +2177,9 @@
       <c r="O9" s="4">
         <v>2204</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <v>2305</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2239,7 +2262,9 @@
       <c r="O10" s="4">
         <v>2136</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4">
+        <v>2204</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -2322,7 +2347,9 @@
       <c r="O11" s="4">
         <v>2022</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4">
+        <v>2038</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -2405,7 +2432,9 @@
       <c r="O12" s="4">
         <v>3</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <v>6</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2488,7 +2517,9 @@
       <c r="O13" s="4">
         <v>33020</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4">
+        <v>34116</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2571,7 +2602,9 @@
       <c r="O14" s="4">
         <v>30897</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4">
+        <v>32907</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2654,7 +2687,9 @@
       <c r="O15" s="4">
         <v>13756</v>
       </c>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4">
+        <v>14250</v>
+      </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2736,7 +2771,9 @@
       <c r="O16" s="4">
         <v>15922</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="4">
+        <v>16451</v>
+      </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2818,7 +2855,9 @@
       <c r="O17" s="4">
         <v>61751</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="4">
+        <v>64822</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2849,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="22">
-        <f t="shared" ref="C18:O18" si="3">+C16+C17</f>
+        <f t="shared" ref="C18:P18" si="3">+C16+C17</f>
         <v>50122</v>
       </c>
       <c r="D18" s="22">
@@ -2900,7 +2939,10 @@
         <f t="shared" si="3"/>
         <v>77673</v>
       </c>
-      <c r="P18" s="22"/>
+      <c r="P18" s="22">
+        <f t="shared" si="3"/>
+        <v>81273</v>
+      </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="4"/>
@@ -2979,7 +3021,9 @@
       <c r="O19" s="4">
         <v>2922</v>
       </c>
-      <c r="P19" s="4"/>
+      <c r="P19" s="4">
+        <v>3505</v>
+      </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -3051,7 +3095,9 @@
       <c r="O20" s="4">
         <v>21121</v>
       </c>
-      <c r="P20" s="4"/>
+      <c r="P20" s="4">
+        <v>22473</v>
+      </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -3082,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:O21" si="6">+C18-SUM(C19:C20)</f>
+        <f t="shared" ref="C21:P21" si="6">+C18-SUM(C19:C20)</f>
         <v>34670</v>
       </c>
       <c r="D21" s="4">
@@ -3133,7 +3179,10 @@
         <f t="shared" si="6"/>
         <v>53630</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4">
+        <f t="shared" si="6"/>
+        <v>55295</v>
+      </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -3212,7 +3261,9 @@
       <c r="O22" s="4">
         <v>8146</v>
       </c>
-      <c r="P22" s="4"/>
+      <c r="P22" s="4">
+        <v>8504</v>
+      </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -3284,7 +3335,9 @@
       <c r="O23" s="4">
         <v>5717</v>
       </c>
-      <c r="P23" s="4"/>
+      <c r="P23" s="4">
+        <v>6584</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -3356,7 +3409,9 @@
       <c r="O24" s="4">
         <v>1806</v>
       </c>
-      <c r="P24" s="4"/>
+      <c r="P24" s="4">
+        <v>1932</v>
+      </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -3387,7 +3442,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ref="C25:O25" si="9">+C21-SUM(C22:C24)</f>
+        <f t="shared" ref="C25:P25" si="9">+C21-SUM(C22:C24)</f>
         <v>21518</v>
       </c>
       <c r="D25" s="4">
@@ -3438,7 +3493,10 @@
         <f t="shared" si="9"/>
         <v>37961</v>
       </c>
-      <c r="P25" s="4"/>
+      <c r="P25" s="4">
+        <f t="shared" si="9"/>
+        <v>38275</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -3517,7 +3575,9 @@
       <c r="O26" s="4">
         <v>-3660</v>
       </c>
-      <c r="P26" s="4"/>
+      <c r="P26" s="4">
+        <v>9971</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -3548,7 +3608,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:O27" si="12">C25+C26</f>
+        <f t="shared" ref="C27:P27" si="12">C25+C26</f>
         <v>21572</v>
       </c>
       <c r="D27" s="4">
@@ -3599,7 +3659,10 @@
         <f t="shared" si="12"/>
         <v>34301</v>
       </c>
-      <c r="P27" s="4"/>
+      <c r="P27" s="4">
+        <f t="shared" si="12"/>
+        <v>48246</v>
+      </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
@@ -3678,7 +3741,9 @@
       <c r="O28" s="4">
         <v>6554</v>
       </c>
-      <c r="P28" s="4"/>
+      <c r="P28" s="4">
+        <v>9788</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
@@ -3709,7 +3774,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:O29" si="15">+C27-C28</f>
+        <f t="shared" ref="C29:P30" si="15">+C27-C28</f>
         <v>17556</v>
       </c>
       <c r="D29" s="4">
@@ -3760,7 +3825,10 @@
         <f t="shared" si="15"/>
         <v>27747</v>
       </c>
-      <c r="P29" s="4"/>
+      <c r="P29" s="4">
+        <f t="shared" si="15"/>
+        <v>38458</v>
+      </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -3823,7 +3891,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="23">
-        <f t="shared" ref="C31:O31" si="18">C29/C32</f>
+        <f t="shared" ref="C31:P31" si="18">C29/C32</f>
         <v>2.3542979750569932</v>
       </c>
       <c r="D31" s="23">
@@ -3874,7 +3942,10 @@
         <f t="shared" si="18"/>
         <v>3.7329476658146103</v>
       </c>
-      <c r="P31" s="23"/>
+      <c r="P31" s="23">
+        <f t="shared" si="18"/>
+        <v>5.1753465213295655</v>
+      </c>
       <c r="Q31" s="23"/>
       <c r="R31" s="23"/>
       <c r="S31" s="4"/>
@@ -3953,7 +4024,9 @@
       <c r="O32" s="4">
         <v>7433</v>
       </c>
-      <c r="P32" s="4"/>
+      <c r="P32" s="4">
+        <v>7431</v>
+      </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -4006,7 +4079,7 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -4048,13 +4121,16 @@
         <f>+O14/K14-1</f>
         <v>0.28245890752116876</v>
       </c>
-      <c r="P34" s="4"/>
+      <c r="P34" s="24">
+        <f>+P14/L14-1</f>
+        <v>0.28824772940808008</v>
+      </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="24">
-        <f t="shared" ref="U34:Z34" si="21">+U14/T14-1</f>
+        <f t="shared" ref="U34:Y34" si="21">+U14/T14-1</f>
         <v>0.24063101192766445</v>
       </c>
       <c r="V34" s="24">
@@ -4087,68 +4163,71 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="24">
-        <f>G16/D16-1</f>
+        <f t="shared" ref="G35:P37" si="22">G16/D16-1</f>
         <v>-5.9453895985953853E-2</v>
       </c>
       <c r="H35" s="24">
-        <f>H16/E16-1</f>
+        <f t="shared" si="22"/>
         <v>0.21510136002052871</v>
       </c>
       <c r="I35" s="24">
-        <f>I16/F16-1</f>
+        <f t="shared" si="22"/>
         <v>1.3469411974129208E-2</v>
       </c>
       <c r="J35" s="24">
-        <f>J16/G16-1</f>
+        <f t="shared" si="22"/>
         <v>-0.1492114579980689</v>
       </c>
       <c r="K35" s="24">
-        <f>K16/H16-1</f>
+        <f t="shared" si="22"/>
         <v>-0.19370677366559319</v>
       </c>
       <c r="L35" s="24">
-        <f>L16/I16-1</f>
+        <f t="shared" si="22"/>
         <v>-5.040983606557381E-2</v>
       </c>
       <c r="M35" s="24">
-        <f>M16/J16-1</f>
+        <f t="shared" si="22"/>
         <v>0.1590376030869336</v>
       </c>
       <c r="N35" s="24">
-        <f>N16/K16-1</f>
+        <f t="shared" si="22"/>
         <v>0.1220534311157675</v>
       </c>
       <c r="O35" s="24">
-        <f>O16/L16-1</f>
+        <f t="shared" si="22"/>
         <v>-1.8311856464640286E-2</v>
       </c>
-      <c r="P35" s="24"/>
+      <c r="P35" s="24">
+        <f t="shared" si="22"/>
+        <v>7.3895162869638931E-2</v>
+      </c>
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
       <c r="S35" s="4"/>
       <c r="T35" s="24"/>
       <c r="U35" s="24">
-        <f>U16/T16-1</f>
+        <f t="shared" ref="U35:Z37" si="23">U16/T16-1</f>
         <v>2.984758358685613E-2</v>
       </c>
       <c r="V35" s="24">
-        <f>V16/U16-1</f>
+        <f t="shared" si="23"/>
         <v>4.457606443173967E-2</v>
       </c>
       <c r="W35" s="24">
-        <f>W16/V16-1</f>
+        <f t="shared" si="23"/>
         <v>2.3327799195205001E-2</v>
       </c>
       <c r="X35" s="24">
-        <f>X16/W16-1</f>
+        <f t="shared" si="23"/>
         <v>-0.11044657097288679</v>
       </c>
       <c r="Y35" s="24">
-        <f>Y16/X16-1</f>
+        <f t="shared" si="23"/>
         <v>1.1437580178983442E-3</v>
       </c>
       <c r="Z35" s="24">
-        <f>Z16/Y16-1</f>
+        <f t="shared" si="23"/>
         <v>-1.2767665539653916E-2</v>
       </c>
     </row>
@@ -4161,68 +4240,71 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="24">
-        <f>G17/D17-1</f>
+        <f t="shared" si="22"/>
         <v>0.13116202042506209</v>
       </c>
       <c r="H36" s="24">
-        <f>H17/E17-1</f>
+        <f t="shared" si="22"/>
         <v>0.15589363814430213</v>
       </c>
       <c r="I36" s="24">
-        <f>I17/F17-1</f>
+        <f t="shared" si="22"/>
         <v>0.13834655277608299</v>
       </c>
       <c r="J36" s="24">
-        <f>J17/G17-1</f>
+        <f t="shared" si="22"/>
         <v>0.25689327021619257</v>
       </c>
       <c r="K36" s="24">
-        <f>K17/H17-1</f>
+        <f t="shared" si="22"/>
         <v>0.16792404651918558</v>
       </c>
       <c r="L36" s="24">
-        <f>L17/I17-1</f>
+        <f t="shared" si="22"/>
         <v>0.19284023404350359</v>
       </c>
       <c r="M36" s="24">
-        <f>M17/J17-1</f>
+        <f t="shared" si="22"/>
         <v>6.2842166569598179E-2</v>
       </c>
       <c r="N36" s="24">
-        <f>N17/K17-1</f>
+        <f t="shared" si="22"/>
         <v>0.17872120525510304</v>
       </c>
       <c r="O36" s="24">
-        <f>O17/L17-1</f>
+        <f t="shared" si="22"/>
         <v>0.15610431917323497</v>
       </c>
-      <c r="P36" s="24"/>
+      <c r="P36" s="24">
+        <f t="shared" si="22"/>
+        <v>0.1840283485853107</v>
+      </c>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="4"/>
       <c r="T36" s="24"/>
       <c r="U36" s="24">
-        <f>U17/T17-1</f>
+        <f t="shared" si="23"/>
         <v>0.25429116338207258</v>
       </c>
       <c r="V36" s="24">
-        <f>V17/U17-1</f>
+        <f t="shared" si="23"/>
         <v>0.29396857577293467</v>
       </c>
       <c r="W36" s="24">
-        <f>W17/V17-1</f>
+        <f t="shared" si="23"/>
         <v>0.29401941987754343</v>
       </c>
       <c r="X36" s="24">
-        <f>X17/W17-1</f>
+        <f t="shared" si="23"/>
         <v>0.17268078191463943</v>
       </c>
       <c r="Y36" s="24">
-        <f>Y17/X17-1</f>
+        <f t="shared" si="23"/>
         <v>0.2250638517552439</v>
       </c>
       <c r="Z36" s="24">
-        <f>Z17/Y17-1</f>
+        <f t="shared" si="23"/>
         <v>0.20753649867756407</v>
       </c>
     </row>
@@ -4235,68 +4317,71 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="25">
-        <f>G18/D18-1</f>
+        <f t="shared" si="22"/>
         <v>7.1473259142700085E-2</v>
       </c>
       <c r="H37" s="25">
-        <f>H18/E18-1</f>
+        <f t="shared" si="22"/>
         <v>0.17335452257979078</v>
       </c>
       <c r="I37" s="25">
-        <f>I18/F18-1</f>
+        <f t="shared" si="22"/>
         <v>0.10089163359376396</v>
       </c>
       <c r="J37" s="25">
-        <f>J18/G18-1</f>
+        <f t="shared" si="22"/>
         <v>0.14526602615142337</v>
       </c>
       <c r="K37" s="25">
-        <f>K18/H18-1</f>
+        <f t="shared" si="22"/>
         <v>5.7481457594324326E-2</v>
       </c>
       <c r="L37" s="25">
-        <f>L18/I18-1</f>
+        <f t="shared" si="22"/>
         <v>0.1256749329108604</v>
       </c>
       <c r="M37" s="25">
-        <f>M18/J18-1</f>
+        <f t="shared" si="22"/>
         <v>8.2484898110525728E-2</v>
       </c>
       <c r="N37" s="25">
-        <f>N18/K18-1</f>
+        <f t="shared" si="22"/>
         <v>0.16552565373179839</v>
       </c>
       <c r="O37" s="25">
-        <f>O18/L18-1</f>
+        <f t="shared" si="22"/>
         <v>0.115478515625</v>
       </c>
-      <c r="P37" s="25"/>
+      <c r="P37" s="25">
+        <f t="shared" si="22"/>
+        <v>0.15994919076299485</v>
+      </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
       <c r="S37" s="22"/>
       <c r="T37" s="25"/>
       <c r="U37" s="25">
-        <f>U18/T18-1</f>
+        <f t="shared" si="23"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="V37" s="25">
-        <f>V18/U18-1</f>
+        <f t="shared" si="23"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="W37" s="25">
-        <f>W18/V18-1</f>
+        <f t="shared" si="23"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="X37" s="25">
-        <f>X18/W18-1</f>
+        <f t="shared" si="23"/>
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="Y37" s="25">
-        <f>Y18/X18-1</f>
+        <f t="shared" si="23"/>
         <v>0.1566996201307127</v>
       </c>
       <c r="Z37" s="25">
-        <f>Z18/Y18-1</f>
+        <f t="shared" si="23"/>
         <v>0.14932156232406713</v>
       </c>
     </row>
@@ -4305,79 +4390,82 @@
         <v>103</v>
       </c>
       <c r="C38" s="24">
-        <f t="shared" ref="C38:N38" si="22">(C16-C19)/C16</f>
+        <f t="shared" ref="C38:N38" si="24">(C16-C19)/C16</f>
         <v>0.72670097198399086</v>
       </c>
       <c r="D38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.65550644790216139</v>
       </c>
       <c r="E38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.74717731588401337</v>
       </c>
       <c r="F38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="G38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="H38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="I38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.74596018735363001</v>
       </c>
       <c r="J38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.89120072633729286</v>
       </c>
       <c r="K38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.78431115767417492</v>
       </c>
       <c r="L38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.76225414637153954</v>
       </c>
       <c r="M38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.80174946145309745</v>
       </c>
       <c r="N38" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.8066059757236228</v>
       </c>
       <c r="O38" s="24">
-        <f t="shared" ref="O38" si="23">(O16-O19)/O16</f>
+        <f t="shared" ref="O38:P38" si="25">(O16-O19)/O16</f>
         <v>0.81648034166561989</v>
       </c>
-      <c r="P38" s="24"/>
+      <c r="P38" s="24">
+        <f t="shared" si="25"/>
+        <v>0.78694304297611084</v>
+      </c>
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="4"/>
       <c r="T38" s="24">
-        <f t="shared" ref="T38" si="24">(T16-T19)/T16</f>
+        <f t="shared" ref="T38" si="26">(T16-T19)/T16</f>
         <v>0.75369689264254036</v>
       </c>
       <c r="U38" s="24">
-        <f t="shared" ref="U38:X38" si="25">(U16-U19)/U16</f>
+        <f t="shared" ref="U38:X38" si="27">(U16-U19)/U16</f>
         <v>0.76459781602269217</v>
       </c>
       <c r="V38" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="W38" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="X38" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="Y38" s="24">
@@ -4394,79 +4482,82 @@
         <v>104</v>
       </c>
       <c r="C39" s="24">
-        <f t="shared" ref="C39:N39" si="26">(C17-C20)/C17</f>
+        <f t="shared" ref="C39:N39" si="28">(C17-C20)/C17</f>
         <v>0.67569296995433525</v>
       </c>
       <c r="D39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.67435826662986476</v>
       </c>
       <c r="E39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.67299900721779493</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="G39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="H39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="I39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.68363928714993971</v>
       </c>
       <c r="J39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.64577751892836344</v>
       </c>
       <c r="K39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.66599089698487468</v>
       </c>
       <c r="L39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.66407054462396797</v>
       </c>
       <c r="M39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.65510438928160453</v>
       </c>
       <c r="N39" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.65095691762920493</v>
       </c>
       <c r="O39" s="24">
-        <f t="shared" ref="O39" si="27">(O17-O20)/O17</f>
+        <f t="shared" ref="O39:P39" si="29">(O17-O20)/O17</f>
         <v>0.65796505319751908</v>
       </c>
-      <c r="P39" s="24"/>
+      <c r="P39" s="24">
+        <f t="shared" si="29"/>
+        <v>0.65331214711054886</v>
+      </c>
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="4"/>
       <c r="T39" s="24">
-        <f t="shared" ref="T39" si="28">(T17-T20)/T17</f>
+        <f t="shared" ref="T39" si="30">(T17-T20)/T17</f>
         <v>0.55437146585471941</v>
       </c>
       <c r="U39" s="24">
-        <f t="shared" ref="U39:X39" si="29">(U17-U20)/U17</f>
+        <f t="shared" ref="U39:X39" si="31">(U17-U20)/U17</f>
         <v>0.59904766985888447</v>
       </c>
       <c r="V39" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="W39" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="X39" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="Y39" s="24">
@@ -4483,79 +4574,82 @@
         <v>36</v>
       </c>
       <c r="C40" s="24">
-        <f t="shared" ref="C40:N40" si="30">C21/C18</f>
+        <f t="shared" ref="C40:N40" si="32">C21/C18</f>
         <v>0.69171222217788597</v>
       </c>
       <c r="D40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.66845507801391546</v>
       </c>
       <c r="E40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.69487485101311086</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="G40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.71155581506449384</v>
       </c>
       <c r="H40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="I40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70084710142584628</v>
       </c>
       <c r="J40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.69589197707293715</v>
       </c>
       <c r="K40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.69354273080734929</v>
       </c>
       <c r="L40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.68693991268382348</v>
       </c>
       <c r="M40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.6871663859789342</v>
       </c>
       <c r="N40" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.68584921704320978</v>
       </c>
       <c r="O40" s="24">
-        <f t="shared" ref="O40" si="31">O21/O18</f>
+        <f t="shared" ref="O40:P40" si="33">O21/O18</f>
         <v>0.69045871795862135</v>
       </c>
-      <c r="P40" s="24"/>
+      <c r="P40" s="24">
+        <f t="shared" si="33"/>
+        <v>0.68036125158416694</v>
+      </c>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="4"/>
       <c r="T40" s="24">
-        <f t="shared" ref="T40" si="32">T21/T18</f>
+        <f t="shared" ref="T40" si="34">T21/T18</f>
         <v>0.65901957200638894</v>
       </c>
       <c r="U40" s="24">
-        <f t="shared" ref="U40:X40" si="33">U21/U18</f>
+        <f t="shared" ref="U40:X40" si="35">U21/U18</f>
         <v>0.67781001992797962</v>
       </c>
       <c r="V40" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="W40" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="X40" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="Y40" s="24">
@@ -4572,79 +4666,82 @@
         <v>37</v>
       </c>
       <c r="C41" s="24">
-        <f t="shared" ref="C41:N41" si="34">C25/C18</f>
+        <f t="shared" ref="C41:N41" si="36">C25/C18</f>
         <v>0.42931247755476637</v>
       </c>
       <c r="D41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="E41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.4316503230169606</v>
       </c>
       <c r="G41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.47587451563246458</v>
       </c>
       <c r="H41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="I41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.44587603866921011</v>
       </c>
       <c r="J41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.43142737960974553</v>
       </c>
       <c r="K41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.46583822520393381</v>
       </c>
       <c r="L41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.45457548253676472</v>
       </c>
       <c r="M41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.45671224274255701</v>
       </c>
       <c r="N41" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.44901296424693554</v>
       </c>
       <c r="O41" s="24">
-        <f t="shared" ref="O41" si="35">O25/O18</f>
+        <f t="shared" ref="O41:P41" si="37">O25/O18</f>
         <v>0.48872838695557014</v>
       </c>
-      <c r="P41" s="24"/>
+      <c r="P41" s="24">
+        <f t="shared" si="37"/>
+        <v>0.47094360980891564</v>
+      </c>
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="4"/>
       <c r="T41" s="24">
-        <f t="shared" ref="T41" si="36">T25/T18</f>
+        <f t="shared" ref="T41" si="38">T25/T18</f>
         <v>0.3413698020549415</v>
       </c>
       <c r="U41" s="24">
-        <f t="shared" ref="U41:X41" si="37">U25/U18</f>
+        <f t="shared" ref="U41:X41" si="39">U25/U18</f>
         <v>0.37030381428521486</v>
       </c>
       <c r="V41" s="24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="W41" s="24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="X41" s="24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.41772880636104098</v>
       </c>
       <c r="Y41" s="24">
@@ -4661,79 +4758,82 @@
         <v>38</v>
       </c>
       <c r="C42" s="24">
-        <f t="shared" ref="C42:N42" si="38">C28/C27</f>
+        <f t="shared" ref="C42:N42" si="40">C28/C27</f>
         <v>0.18616725384758021</v>
       </c>
       <c r="D42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.19243817296818919</v>
       </c>
       <c r="E42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.19291668504388479</v>
       </c>
       <c r="F42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="G42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.18303767775985927</v>
       </c>
       <c r="H42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="I42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.17914468514984846</v>
       </c>
       <c r="J42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.19130275229357799</v>
       </c>
       <c r="K42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.18507383791998414</v>
       </c>
       <c r="L42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.17902264600715137</v>
       </c>
       <c r="M42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.17697676642126398</v>
       </c>
       <c r="N42" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.16504169732646554</v>
       </c>
       <c r="O42" s="24">
-        <f t="shared" ref="O42" si="39">O28/O27</f>
+        <f t="shared" ref="O42:P42" si="41">O28/O27</f>
         <v>0.19107314655549401</v>
       </c>
-      <c r="P42" s="24"/>
+      <c r="P42" s="24">
+        <f t="shared" si="41"/>
+        <v>0.20287692243916594</v>
+      </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="4"/>
       <c r="T42" s="24">
-        <f t="shared" ref="T42" si="40">T28/T27</f>
+        <f t="shared" ref="T42" si="42">T28/T27</f>
         <v>0.10181285478850027</v>
       </c>
       <c r="U42" s="24">
-        <f t="shared" ref="U42:X42" si="41">U28/U27</f>
+        <f t="shared" ref="U42:X42" si="43">U28/U27</f>
         <v>0.16507655177615205</v>
       </c>
       <c r="V42" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="W42" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="X42" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.18978625253328257</v>
       </c>
       <c r="Y42" s="24">
@@ -5007,19 +5107,19 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4">
-        <f t="shared" ref="T49:W49" si="42">+SUM(T44:T48)</f>
+        <f t="shared" ref="T49:W49" si="44">+SUM(T44:T48)</f>
         <v>175552</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>181915</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>184406</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>169684</v>
       </c>
       <c r="X49" s="4">
@@ -5315,23 +5415,23 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4">
-        <f t="shared" ref="T56:X56" si="43">+SUM(T50:T55)</f>
+        <f t="shared" ref="T56:X56" si="45">+SUM(T50:T55)</f>
         <v>111004</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>119396</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>149373</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>195156</v>
       </c>
       <c r="X56" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>227719</v>
       </c>
       <c r="Y56" s="4">
@@ -5365,31 +5465,31 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22">
-        <f t="shared" ref="T57:Z57" si="44">+T49+T56</f>
+        <f t="shared" ref="T57:Z57" si="46">+T49+T56</f>
         <v>286556</v>
       </c>
       <c r="U57" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>301311</v>
       </c>
       <c r="V57" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>333779</v>
       </c>
       <c r="W57" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>364840</v>
       </c>
       <c r="X57" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>411976</v>
       </c>
       <c r="Y57" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>512163</v>
       </c>
       <c r="Z57" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>619003</v>
       </c>
     </row>
@@ -5741,23 +5841,23 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:X66" si="45">+SUM(T59:T65)</f>
+        <f t="shared" ref="T66:X66" si="47">+SUM(T59:T65)</f>
         <v>69420</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>72310</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>88657</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>95082</v>
       </c>
       <c r="X66" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>104149</v>
       </c>
       <c r="Y66" s="4">
@@ -6049,23 +6149,23 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4">
-        <f t="shared" ref="T73:X73" si="46">+SUM(T67:T72)</f>
+        <f t="shared" ref="T73:X73" si="48">+SUM(T67:T72)</f>
         <v>114806</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>110697</v>
       </c>
       <c r="V73" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>103107</v>
       </c>
       <c r="W73" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>103216</v>
       </c>
       <c r="X73" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>101604</v>
       </c>
       <c r="Y73" s="4">
@@ -6099,23 +6199,23 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="22">
-        <f t="shared" ref="T74:X74" si="47">+T73+T66</f>
+        <f t="shared" ref="T74:X74" si="49">+T73+T66</f>
         <v>184226</v>
       </c>
       <c r="U74" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>183007</v>
       </c>
       <c r="V74" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>191764</v>
       </c>
       <c r="W74" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>198298</v>
       </c>
       <c r="X74" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>205753</v>
       </c>
       <c r="Y74" s="22">
@@ -6192,19 +6292,19 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="22">
-        <f t="shared" ref="T76:W76" si="48">+T74+T75</f>
+        <f t="shared" ref="T76:W76" si="50">+T74+T75</f>
         <v>286556</v>
       </c>
       <c r="U76" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>301311</v>
       </c>
       <c r="V76" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>333752</v>
       </c>
       <c r="W76" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>364840</v>
       </c>
       <c r="X76" s="22">
@@ -6298,31 +6398,31 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4">
-        <f t="shared" ref="T79:Z79" si="49">T29</f>
+        <f t="shared" ref="T79:Z79" si="51">T29</f>
         <v>39240</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>44281</v>
       </c>
       <c r="V79" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>61271</v>
       </c>
       <c r="W79" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>72738</v>
       </c>
       <c r="X79" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>72361</v>
       </c>
       <c r="Y79" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>88136</v>
       </c>
       <c r="Z79" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>101832</v>
       </c>
     </row>
@@ -6935,23 +7035,23 @@
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="4">
-        <f t="shared" ref="T94:X94" si="50">+SUM(T85:T93)</f>
+        <f t="shared" ref="T94:X94" si="52">+SUM(T85:T93)</f>
         <v>3866</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-1483</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-936</v>
       </c>
       <c r="W94" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>446</v>
       </c>
       <c r="X94" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-2388</v>
       </c>
       <c r="Y94" s="4">
@@ -6985,23 +7085,23 @@
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="22">
-        <f t="shared" ref="T95:X95" si="51">+T79+SUM(T80:T83,T94)</f>
+        <f t="shared" ref="T95:X95" si="53">+T79+SUM(T80:T83,T94)</f>
         <v>52185</v>
       </c>
       <c r="U95" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>60675</v>
       </c>
       <c r="V95" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>76740</v>
       </c>
       <c r="W95" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>89035</v>
       </c>
       <c r="X95" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>87582</v>
       </c>
       <c r="Y95" s="22">
@@ -7338,23 +7438,23 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="22">
-        <f t="shared" ref="T103:X103" si="52">+SUM(T96:T102)</f>
+        <f t="shared" ref="T103:X103" si="54">+SUM(T96:T102)</f>
         <v>-36887</v>
       </c>
       <c r="U103" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-46031</v>
       </c>
       <c r="V103" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-48486</v>
       </c>
       <c r="W103" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-58876</v>
       </c>
       <c r="X103" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>-43935</v>
       </c>
       <c r="Y103" s="22">
@@ -7646,23 +7746,23 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="22">
-        <f t="shared" ref="T110:X110" si="53">+SUM(T104:T109)</f>
+        <f t="shared" ref="T110:X110" si="55">+SUM(T104:T109)</f>
         <v>-15773</v>
       </c>
       <c r="U110" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-12223</v>
       </c>
       <c r="V110" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-27577</v>
       </c>
       <c r="W110" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-30311</v>
       </c>
       <c r="X110" s="22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-16358</v>
       </c>
       <c r="Y110" s="22">
@@ -7733,23 +7833,23 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
       <c r="T112" s="22">
-        <f t="shared" ref="T112:X112" si="54">+T111+T110+T103+T95</f>
+        <f t="shared" ref="T112:X112" si="56">+T111+T110+T103+T95</f>
         <v>-475</v>
       </c>
       <c r="U112" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2421</v>
       </c>
       <c r="V112" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>677</v>
       </c>
       <c r="W112" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-293</v>
       </c>
       <c r="X112" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>27095</v>
       </c>
       <c r="Y112" s="22">
@@ -7905,31 +8005,31 @@
       <c r="R116" s="22"/>
       <c r="S116" s="22"/>
       <c r="T116" s="22">
-        <f t="shared" ref="T116:Z116" si="55">T25+T80+T94+T104</f>
+        <f t="shared" ref="T116:Z116" si="57">T25+T80+T94+T104</f>
         <v>44582</v>
       </c>
       <c r="U116" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>48831</v>
       </c>
       <c r="V116" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>60044</v>
       </c>
       <c r="W116" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>74403</v>
       </c>
       <c r="X116" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>71979</v>
       </c>
       <c r="Y116" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>89067</v>
       </c>
       <c r="Z116" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>92780</v>
       </c>
     </row>
